--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11983" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11997" uniqueCount="767">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -2150,7 +2150,7 @@
     <t>2025-05-30T09:27:57.825189Z</t>
   </si>
   <si>
-    <t>2025-06-11T12:58:25.754145Z</t>
+    <t>2025-06-12T12:16:06.575018Z</t>
   </si>
   <si>
     <t>2025-05-27T17:17:21.994464Z</t>
@@ -95649,7 +95649,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -95660,8 +95660,8 @@
       <c r="L228">
         <v>0</v>
       </c>
-      <c r="M228">
-        <v>0</v>
+      <c r="M228" t="s">
+        <v>258</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -95670,7 +95670,7 @@
         <v>0</v>
       </c>
       <c r="P228" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -95685,34 +95685,34 @@
         <v>428</v>
       </c>
       <c r="U228" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V228" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="W228" t="s">
         <v>234</v>
       </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
-        <v>0</v>
+      <c r="X228" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>259</v>
       </c>
       <c r="AB228" t="s">
         <v>215</v>
       </c>
-      <c r="AC228">
-        <v>0</v>
-      </c>
-      <c r="AD228">
-        <v>0</v>
-      </c>
-      <c r="AE228">
-        <v>0</v>
+      <c r="AC228" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>473</v>
       </c>
       <c r="AF228">
         <v>0</v>
@@ -95723,8 +95723,8 @@
       <c r="AH228" t="s">
         <v>170</v>
       </c>
-      <c r="AI228">
-        <v>0</v>
+      <c r="AI228" t="s">
+        <v>180</v>
       </c>
       <c r="AJ228">
         <v>0</v>
@@ -95735,8 +95735,8 @@
       <c r="AL228" t="s">
         <v>215</v>
       </c>
-      <c r="AM228">
-        <v>0</v>
+      <c r="AM228" t="s">
+        <v>234</v>
       </c>
       <c r="AN228">
         <v>0</v>
@@ -95817,7 +95817,7 @@
         <v>170</v>
       </c>
       <c r="BN228" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="BO228" t="s">
         <v>259</v>
@@ -95829,7 +95829,7 @@
         <v>215</v>
       </c>
       <c r="BR228" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="BT228">
         <v>0</v>
@@ -95844,58 +95844,58 @@
         <v>146</v>
       </c>
       <c r="BX228" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY228">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="BY228" t="s">
+        <v>748</v>
       </c>
       <c r="BZ228">
         <v>0</v>
       </c>
       <c r="CA228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CD228">
+        <v>0</v>
+      </c>
+      <c r="CE228">
+        <v>0</v>
+      </c>
+      <c r="CF228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CG228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CH228">
+        <v>0</v>
+      </c>
+      <c r="CI228" t="s">
         <v>234</v>
       </c>
-      <c r="CB228" t="s">
+      <c r="CJ228" t="s">
         <v>170</v>
       </c>
-      <c r="CC228">
-        <v>0</v>
-      </c>
-      <c r="CD228">
-        <v>0</v>
-      </c>
-      <c r="CE228">
-        <v>0</v>
-      </c>
-      <c r="CF228" t="s">
+      <c r="CK228" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL228">
+        <v>0</v>
+      </c>
+      <c r="CM228">
+        <v>0</v>
+      </c>
+      <c r="CN228" t="s">
         <v>215</v>
       </c>
-      <c r="CG228">
-        <v>0</v>
-      </c>
-      <c r="CH228">
-        <v>0</v>
-      </c>
-      <c r="CI228">
-        <v>0</v>
-      </c>
-      <c r="CJ228">
-        <v>0</v>
-      </c>
-      <c r="CK228">
-        <v>0</v>
-      </c>
-      <c r="CL228">
-        <v>0</v>
-      </c>
-      <c r="CM228">
-        <v>0</v>
-      </c>
-      <c r="CN228">
-        <v>0</v>
-      </c>
-      <c r="CO228">
-        <v>0</v>
+      <c r="CO228" t="s">
+        <v>234</v>
       </c>
       <c r="CP228">
         <v>0</v>
@@ -95951,17 +95951,11 @@
       <c r="DP228" t="s">
         <v>259</v>
       </c>
-      <c r="DQ228" t="s">
-        <v>259</v>
-      </c>
       <c r="DR228">
         <v>0</v>
       </c>
-      <c r="DS228" t="s">
-        <v>259</v>
-      </c>
       <c r="DT228" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="DU228">
         <v>0</v>
@@ -95970,10 +95964,10 @@
         <v>259</v>
       </c>
       <c r="DW228" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="DX228" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="DY228" t="s">
         <v>259</v>
@@ -95984,8 +95978,8 @@
       <c r="EA228" t="s">
         <v>168</v>
       </c>
-      <c r="EB228" t="s">
-        <v>259</v>
+      <c r="EB228">
+        <v>0</v>
       </c>
       <c r="EC228">
         <v>0</v>
@@ -95997,7 +95991,7 @@
         <v>0</v>
       </c>
       <c r="EF228" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="EG228">
         <v>0</v>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11997" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12010" uniqueCount="767">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -2000,7 +2000,7 @@
     <t>2025-06-10T10:00:38.783947Z</t>
   </si>
   <si>
-    <t>2025-06-11T13:05:48.951632Z</t>
+    <t>2025-06-12T12:20:17.324703Z</t>
   </si>
   <si>
     <t>2025-06-03T06:53:22.778137Z</t>
@@ -75248,7 +75248,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -75259,8 +75259,8 @@
       <c r="L178">
         <v>0</v>
       </c>
-      <c r="M178">
-        <v>0</v>
+      <c r="M178" t="s">
+        <v>258</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -75269,7 +75269,7 @@
         <v>0</v>
       </c>
       <c r="P178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q178">
         <v>0</v>
@@ -75284,37 +75284,34 @@
         <v>392</v>
       </c>
       <c r="U178" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="V178" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="W178" t="s">
         <v>234</v>
       </c>
       <c r="X178" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
-        <v>0</v>
-      </c>
-      <c r="AB178">
-        <v>0</v>
-      </c>
-      <c r="AC178">
-        <v>0</v>
-      </c>
-      <c r="AD178">
-        <v>0</v>
-      </c>
-      <c r="AE178">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>473</v>
       </c>
       <c r="AF178">
         <v>0</v>
@@ -75323,16 +75320,16 @@
         <v>234</v>
       </c>
       <c r="AH178" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI178">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>215</v>
       </c>
       <c r="AJ178">
         <v>0</v>
       </c>
-      <c r="AK178">
-        <v>0</v>
+      <c r="AK178" t="s">
+        <v>215</v>
       </c>
       <c r="AL178">
         <v>0</v>
@@ -75416,16 +75413,16 @@
         <v>234</v>
       </c>
       <c r="BM178" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="BN178" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="BO178" t="s">
         <v>259</v>
       </c>
       <c r="BP178" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="BQ178" t="s">
         <v>259</v>
@@ -75448,50 +75445,50 @@
       <c r="BX178" t="s">
         <v>259</v>
       </c>
-      <c r="BY178">
-        <v>0</v>
+      <c r="BY178" t="s">
+        <v>748</v>
       </c>
       <c r="BZ178">
         <v>0</v>
       </c>
       <c r="CA178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CD178">
+        <v>0</v>
+      </c>
+      <c r="CE178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CF178">
+        <v>0</v>
+      </c>
+      <c r="CG178">
+        <v>0</v>
+      </c>
+      <c r="CH178">
+        <v>0</v>
+      </c>
+      <c r="CI178" t="s">
         <v>234</v>
       </c>
-      <c r="CB178" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC178">
-        <v>0</v>
-      </c>
-      <c r="CD178">
-        <v>0</v>
-      </c>
-      <c r="CE178">
-        <v>0</v>
-      </c>
-      <c r="CF178">
-        <v>0</v>
-      </c>
-      <c r="CG178">
-        <v>0</v>
-      </c>
-      <c r="CH178">
-        <v>0</v>
-      </c>
-      <c r="CI178">
-        <v>0</v>
-      </c>
-      <c r="CJ178">
-        <v>0</v>
-      </c>
-      <c r="CK178">
-        <v>0</v>
+      <c r="CJ178" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK178" t="s">
+        <v>215</v>
       </c>
       <c r="CL178">
         <v>0</v>
       </c>
-      <c r="CM178">
-        <v>0</v>
+      <c r="CM178" t="s">
+        <v>215</v>
       </c>
       <c r="CN178">
         <v>0</v>
@@ -75553,41 +75550,35 @@
       <c r="DP178" t="s">
         <v>259</v>
       </c>
-      <c r="DQ178" t="s">
-        <v>259</v>
-      </c>
       <c r="DR178">
         <v>0</v>
       </c>
-      <c r="DS178" t="s">
-        <v>259</v>
-      </c>
       <c r="DT178" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU178">
+        <v>0</v>
+      </c>
+      <c r="DV178" t="s">
+        <v>259</v>
+      </c>
+      <c r="DW178" t="s">
+        <v>259</v>
+      </c>
+      <c r="DX178" t="s">
+        <v>168</v>
+      </c>
+      <c r="DY178" t="s">
+        <v>259</v>
+      </c>
+      <c r="DZ178" t="s">
+        <v>259</v>
+      </c>
+      <c r="EA178" t="s">
         <v>215</v>
       </c>
-      <c r="DU178">
-        <v>0</v>
-      </c>
-      <c r="DV178" t="s">
-        <v>259</v>
-      </c>
-      <c r="DW178" t="s">
-        <v>215</v>
-      </c>
-      <c r="DX178" t="s">
-        <v>259</v>
-      </c>
-      <c r="DY178" t="s">
-        <v>259</v>
-      </c>
-      <c r="DZ178" t="s">
-        <v>259</v>
-      </c>
-      <c r="EA178" t="s">
-        <v>259</v>
-      </c>
-      <c r="EB178" t="s">
-        <v>259</v>
+      <c r="EB178">
+        <v>0</v>
       </c>
       <c r="EC178">
         <v>0</v>
@@ -75599,7 +75590,7 @@
         <v>0</v>
       </c>
       <c r="EF178" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="EG178">
         <v>0</v>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12023" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12042" uniqueCount="767">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -2144,7 +2144,7 @@
     <t>2025-06-10T10:11:38.947534Z</t>
   </si>
   <si>
-    <t>2025-06-11T13:04:39.735643Z</t>
+    <t>2025-06-12T12:30:42.528492Z</t>
   </si>
   <si>
     <t>2025-05-30T09:27:57.825189Z</t>
@@ -94826,7 +94826,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -94837,8 +94837,8 @@
       <c r="L226">
         <v>0</v>
       </c>
-      <c r="M226">
-        <v>0</v>
+      <c r="M226" t="s">
+        <v>257</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -94847,7 +94847,7 @@
         <v>0</v>
       </c>
       <c r="P226" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -94862,37 +94862,34 @@
         <v>426</v>
       </c>
       <c r="U226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="V226" t="s">
-        <v>459</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
+        <v>460</v>
+      </c>
+      <c r="W226" t="s">
+        <v>258</v>
       </c>
       <c r="X226" t="s">
         <v>461</v>
       </c>
       <c r="Y226" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB226" t="s">
         <v>233</v>
       </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
-        <v>0</v>
-      </c>
-      <c r="AB226">
-        <v>0</v>
-      </c>
-      <c r="AC226">
-        <v>0</v>
-      </c>
-      <c r="AD226">
-        <v>0</v>
-      </c>
-      <c r="AE226">
-        <v>0</v>
+      <c r="AC226" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>473</v>
       </c>
       <c r="AF226">
         <v>0</v>
@@ -94904,19 +94901,19 @@
         <v>461</v>
       </c>
       <c r="AI226" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>461</v>
+      </c>
+      <c r="AL226" t="s">
         <v>233</v>
       </c>
-      <c r="AJ226">
-        <v>0</v>
-      </c>
-      <c r="AK226">
-        <v>0</v>
-      </c>
-      <c r="AL226">
-        <v>0</v>
-      </c>
-      <c r="AM226">
-        <v>0</v>
+      <c r="AM226" t="s">
+        <v>233</v>
       </c>
       <c r="AN226">
         <v>0</v>
@@ -94997,19 +94994,19 @@
         <v>461</v>
       </c>
       <c r="BN226" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO226" t="s">
+        <v>214</v>
+      </c>
+      <c r="BP226" t="s">
+        <v>461</v>
+      </c>
+      <c r="BQ226" t="s">
         <v>233</v>
       </c>
-      <c r="BO226" t="s">
-        <v>258</v>
-      </c>
-      <c r="BP226" t="s">
-        <v>258</v>
-      </c>
-      <c r="BQ226" t="s">
-        <v>258</v>
-      </c>
       <c r="BR226" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="BT226">
         <v>0</v>
@@ -95026,8 +95023,8 @@
       <c r="BX226" t="s">
         <v>258</v>
       </c>
-      <c r="BY226">
-        <v>0</v>
+      <c r="BY226" t="s">
+        <v>748</v>
       </c>
       <c r="BZ226">
         <v>0</v>
@@ -95036,46 +95033,46 @@
         <v>0</v>
       </c>
       <c r="CB226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CF226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH226">
+        <v>0</v>
+      </c>
+      <c r="CI226">
+        <v>0</v>
+      </c>
+      <c r="CJ226" t="s">
         <v>461</v>
       </c>
-      <c r="CC226" t="s">
+      <c r="CK226" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL226" t="s">
+        <v>214</v>
+      </c>
+      <c r="CM226" t="s">
+        <v>461</v>
+      </c>
+      <c r="CN226" t="s">
         <v>233</v>
       </c>
-      <c r="CD226">
-        <v>0</v>
-      </c>
-      <c r="CE226">
-        <v>0</v>
-      </c>
-      <c r="CF226">
-        <v>0</v>
-      </c>
-      <c r="CG226">
-        <v>0</v>
-      </c>
-      <c r="CH226">
-        <v>0</v>
-      </c>
-      <c r="CI226">
-        <v>0</v>
-      </c>
-      <c r="CJ226">
-        <v>0</v>
-      </c>
-      <c r="CK226">
-        <v>0</v>
-      </c>
-      <c r="CL226">
-        <v>0</v>
-      </c>
-      <c r="CM226">
-        <v>0</v>
-      </c>
-      <c r="CN226">
-        <v>0</v>
-      </c>
-      <c r="CO226">
-        <v>0</v>
+      <c r="CO226" t="s">
+        <v>233</v>
       </c>
       <c r="CP226">
         <v>0</v>
@@ -95131,17 +95128,11 @@
       <c r="DP226" t="s">
         <v>258</v>
       </c>
-      <c r="DQ226" t="s">
-        <v>258</v>
-      </c>
       <c r="DR226">
         <v>0</v>
       </c>
-      <c r="DS226" t="s">
-        <v>258</v>
-      </c>
       <c r="DT226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="DU226">
         <v>0</v>
@@ -95150,10 +95141,10 @@
         <v>258</v>
       </c>
       <c r="DW226" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="DX226" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="DY226" t="s">
         <v>258</v>
@@ -95164,8 +95155,8 @@
       <c r="EA226" t="s">
         <v>180</v>
       </c>
-      <c r="EB226" t="s">
-        <v>258</v>
+      <c r="EB226">
+        <v>0</v>
       </c>
       <c r="EC226">
         <v>0</v>
@@ -95177,7 +95168,7 @@
         <v>0</v>
       </c>
       <c r="EF226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="EG226">
         <v>0</v>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12042" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12074" uniqueCount="767">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -667,6 +667,9 @@
     <t>35</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>179</t>
   </si>
   <si>
@@ -752,9 +755,6 @@
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>39</t>
   </si>
   <si>
     <t>46</t>
@@ -1784,7 +1784,7 @@
     <t>2025-06-10T10:14:07.636883Z</t>
   </si>
   <si>
-    <t>2025-06-11T12:51:36.818166Z</t>
+    <t>2025-06-12T12:35:28.391560Z</t>
   </si>
   <si>
     <t>2025-05-30T08:08:38.313524Z</t>
@@ -2054,7 +2054,7 @@
     <t>2025-06-11T12:19:38.956312Z</t>
   </si>
   <si>
-    <t>2025-06-11T13:01:12.933578Z</t>
+    <t>2025-06-12T12:39:52.292053Z</t>
   </si>
   <si>
     <t>2025-05-29T07:18:44.050061Z</t>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>258</v>
       </c>
       <c r="BO2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>215</v>
       </c>
       <c r="X6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>215</v>
       </c>
       <c r="BM6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN6" t="s">
         <v>258</v>
@@ -5022,7 +5022,7 @@
         <v>215</v>
       </c>
       <c r="CJ6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK6">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>174</v>
       </c>
       <c r="X7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y7" t="s">
         <v>214</v>
@@ -5276,7 +5276,7 @@
         <v>174</v>
       </c>
       <c r="AH7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI7" t="s">
         <v>214</v>
@@ -5369,7 +5369,7 @@
         <v>174</v>
       </c>
       <c r="BM7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BN7" t="s">
         <v>214</v>
@@ -5435,7 +5435,7 @@
         <v>174</v>
       </c>
       <c r="CJ7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CK7" t="s">
         <v>214</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EJ7" t="s">
         <v>214</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -5776,7 +5776,7 @@
         <v>258</v>
       </c>
       <c r="BO8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP8" t="s">
         <v>258</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE8">
         <v>0</v>
@@ -6024,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P9" t="s">
         <v>259</v>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="DP9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DQ9" t="s">
         <v>258</v>
@@ -6458,7 +6458,7 @@
         <v>459</v>
       </c>
       <c r="W10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X10" t="s">
         <v>180</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH10" t="s">
         <v>180</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="BL10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM10" t="s">
         <v>180</v>
@@ -6599,7 +6599,7 @@
         <v>258</v>
       </c>
       <c r="BR10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="CA10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB10" t="s">
         <v>180</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH10">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>459</v>
       </c>
       <c r="W13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X13" t="s">
         <v>215</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH13" t="s">
         <v>215</v>
@@ -7808,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="BL13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM13" t="s">
         <v>215</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="CA13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB13" t="s">
         <v>215</v>
@@ -8098,7 +8098,7 @@
         <v>178</v>
       </c>
       <c r="Z14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>178</v>
       </c>
       <c r="AJ14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>178</v>
       </c>
       <c r="BO14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP14" t="s">
         <v>258</v>
@@ -8263,7 +8263,7 @@
         <v>178</v>
       </c>
       <c r="CD14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE14">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>461</v>
       </c>
       <c r="Z16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>461</v>
       </c>
       <c r="AJ16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -9044,7 +9044,7 @@
         <v>461</v>
       </c>
       <c r="BO16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP16" t="s">
         <v>258</v>
@@ -9086,7 +9086,7 @@
         <v>461</v>
       </c>
       <c r="CD16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE16">
         <v>0</v>
@@ -9322,16 +9322,16 @@
         <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -9352,16 +9352,16 @@
         <v>170</v>
       </c>
       <c r="AI17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -9445,16 +9445,16 @@
         <v>170</v>
       </c>
       <c r="BN17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP17" t="s">
         <v>258</v>
       </c>
       <c r="BQ17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR17" t="s">
         <v>258</v>
@@ -9487,16 +9487,16 @@
         <v>170</v>
       </c>
       <c r="CC17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE17">
         <v>0</v>
       </c>
       <c r="CF17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG17">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>459</v>
       </c>
       <c r="W18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X18" t="s">
         <v>215</v>
       </c>
       <c r="Y18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z18" t="s">
         <v>461</v>
@@ -9753,13 +9753,13 @@
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH18" t="s">
         <v>215</v>
       </c>
       <c r="AI18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ18" t="s">
         <v>461</v>
@@ -9846,13 +9846,13 @@
         <v>0</v>
       </c>
       <c r="BL18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM18" t="s">
         <v>215</v>
       </c>
       <c r="BN18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO18" t="s">
         <v>461</v>
@@ -9888,13 +9888,13 @@
         <v>0</v>
       </c>
       <c r="CA18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB18" t="s">
         <v>215</v>
       </c>
       <c r="CC18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD18" t="s">
         <v>461</v>
@@ -10136,7 +10136,7 @@
         <v>174</v>
       </c>
       <c r="Z19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>174</v>
       </c>
       <c r="AJ19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -10259,7 +10259,7 @@
         <v>174</v>
       </c>
       <c r="BO19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP19" t="s">
         <v>258</v>
@@ -10301,7 +10301,7 @@
         <v>174</v>
       </c>
       <c r="CD19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE19">
         <v>0</v>
@@ -10540,7 +10540,7 @@
         <v>461</v>
       </c>
       <c r="Y20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>461</v>
       </c>
       <c r="AI20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>461</v>
       </c>
       <c r="BN20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO20" t="s">
         <v>258</v>
@@ -10729,7 +10729,7 @@
         <v>461</v>
       </c>
       <c r="CK20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL20">
         <v>0</v>
@@ -10938,7 +10938,7 @@
         <v>459</v>
       </c>
       <c r="W21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
         <v>169</v>
@@ -10968,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="AG21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH21" t="s">
         <v>169</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="BL21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM21" t="s">
         <v>169</v>
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="CA21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB21" t="s">
         <v>169</v>
@@ -11348,7 +11348,7 @@
         <v>461</v>
       </c>
       <c r="X22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>258</v>
       </c>
       <c r="AH22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>461</v>
       </c>
       <c r="BM22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN22" t="s">
         <v>258</v>
@@ -11537,7 +11537,7 @@
         <v>461</v>
       </c>
       <c r="CJ22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK22">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="EF22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG22">
         <v>0</v>
@@ -12168,13 +12168,13 @@
         <v>180</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -12198,13 +12198,13 @@
         <v>180</v>
       </c>
       <c r="AI24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -12291,13 +12291,13 @@
         <v>180</v>
       </c>
       <c r="BN24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ24" t="s">
         <v>258</v>
@@ -12333,13 +12333,13 @@
         <v>180</v>
       </c>
       <c r="CC24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF24">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>453</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z26" t="s">
         <v>168</v>
@@ -13015,7 +13015,7 @@
         <v>185</v>
       </c>
       <c r="AI26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AJ26" t="s">
         <v>169</v>
@@ -13108,7 +13108,7 @@
         <v>185</v>
       </c>
       <c r="BN26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BO26" t="s">
         <v>169</v>
@@ -13135,7 +13135,7 @@
         <v>145</v>
       </c>
       <c r="BX26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BY26">
         <v>0</v>
@@ -13150,7 +13150,7 @@
         <v>185</v>
       </c>
       <c r="CC26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CD26" t="s">
         <v>169</v>
@@ -13374,7 +13374,7 @@
         <v>459</v>
       </c>
       <c r="W27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s">
         <v>172</v>
@@ -13386,10 +13386,10 @@
         <v>170</v>
       </c>
       <c r="AA27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -13509,10 +13509,10 @@
         <v>168</v>
       </c>
       <c r="BP27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR27" t="s">
         <v>258</v>
@@ -13575,10 +13575,10 @@
         <v>168</v>
       </c>
       <c r="CM27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO27">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="DS27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="DT27" t="s">
         <v>183</v>
@@ -14610,7 +14610,7 @@
         <v>459</v>
       </c>
       <c r="W30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X30" t="s">
         <v>178</v>
@@ -14733,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="BL30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BM30" t="s">
         <v>178</v>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="CI30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CJ30" t="s">
         <v>178</v>
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="DS30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DT30" t="s">
         <v>186</v>
@@ -15023,7 +15023,7 @@
         <v>459</v>
       </c>
       <c r="W31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X31" t="s">
         <v>210</v>
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AH31" t="s">
         <v>210</v>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -15146,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="BL31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BM31" t="s">
         <v>210</v>
@@ -15161,7 +15161,7 @@
         <v>258</v>
       </c>
       <c r="BQ31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR31" t="s">
         <v>258</v>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="CI31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CJ31" t="s">
         <v>210</v>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="CN31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO31">
         <v>0</v>
@@ -15320,7 +15320,7 @@
         <v>180</v>
       </c>
       <c r="EB31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC31">
         <v>0</v>
@@ -15715,7 +15715,7 @@
         <v>169</v>
       </c>
       <c r="EB32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC32">
         <v>0</v>
@@ -15834,7 +15834,7 @@
         <v>170</v>
       </c>
       <c r="Z33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -15957,7 +15957,7 @@
         <v>170</v>
       </c>
       <c r="BO33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP33" t="s">
         <v>258</v>
@@ -15999,7 +15999,7 @@
         <v>170</v>
       </c>
       <c r="CD33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE33">
         <v>0</v>
@@ -16253,7 +16253,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -16271,19 +16271,19 @@
         <v>0</v>
       </c>
       <c r="AG34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ34">
         <v>0</v>
       </c>
       <c r="AK34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL34">
         <v>0</v>
@@ -16376,7 +16376,7 @@
         <v>258</v>
       </c>
       <c r="BP34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ34" t="s">
         <v>258</v>
@@ -16442,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="CM34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN34">
         <v>0</v>
@@ -16478,19 +16478,19 @@
         <v>0</v>
       </c>
       <c r="CY34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ34">
         <v>0</v>
       </c>
       <c r="DA34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB34">
         <v>0</v>
       </c>
       <c r="DC34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD34">
         <v>0</v>
@@ -16669,7 +16669,7 @@
         <v>170</v>
       </c>
       <c r="AA35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB35" t="s">
         <v>258</v>
@@ -16789,7 +16789,7 @@
         <v>170</v>
       </c>
       <c r="BP35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ35" t="s">
         <v>258</v>
@@ -16831,7 +16831,7 @@
         <v>170</v>
       </c>
       <c r="CE35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF35" t="s">
         <v>258</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="EF35" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="EG35" t="s">
         <v>258</v>
@@ -17594,7 +17594,7 @@
         <v>174</v>
       </c>
       <c r="BN37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO37" t="s">
         <v>258</v>
@@ -17636,7 +17636,7 @@
         <v>174</v>
       </c>
       <c r="CC37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD37">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>215</v>
       </c>
       <c r="Y38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -18007,7 +18007,7 @@
         <v>215</v>
       </c>
       <c r="BN38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO38" t="s">
         <v>258</v>
@@ -18073,7 +18073,7 @@
         <v>215</v>
       </c>
       <c r="CK38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL38">
         <v>0</v>
@@ -20338,7 +20338,7 @@
         <v>170</v>
       </c>
       <c r="Y44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -20368,7 +20368,7 @@
         <v>170</v>
       </c>
       <c r="AI44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ44">
         <v>0</v>
@@ -20461,7 +20461,7 @@
         <v>170</v>
       </c>
       <c r="BN44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO44" t="s">
         <v>258</v>
@@ -20527,7 +20527,7 @@
         <v>170</v>
       </c>
       <c r="CK44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL44">
         <v>0</v>
@@ -20739,7 +20739,7 @@
         <v>459</v>
       </c>
       <c r="W45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X45" t="s">
         <v>210</v>
@@ -20748,10 +20748,10 @@
         <v>168</v>
       </c>
       <c r="Z45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
       <c r="AG45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH45" t="s">
         <v>210</v>
@@ -20778,10 +20778,10 @@
         <v>168</v>
       </c>
       <c r="AJ45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -20862,7 +20862,7 @@
         <v>0</v>
       </c>
       <c r="BL45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM45" t="s">
         <v>210</v>
@@ -20871,10 +20871,10 @@
         <v>168</v>
       </c>
       <c r="BO45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ45" t="s">
         <v>258</v>
@@ -20928,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="CI45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ45" t="s">
         <v>210</v>
@@ -20937,10 +20937,10 @@
         <v>168</v>
       </c>
       <c r="CL45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN45">
         <v>0</v>
@@ -21149,10 +21149,10 @@
         <v>177</v>
       </c>
       <c r="Y46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -21179,10 +21179,10 @@
         <v>177</v>
       </c>
       <c r="AI46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK46">
         <v>0</v>
@@ -21272,10 +21272,10 @@
         <v>177</v>
       </c>
       <c r="BN46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP46" t="s">
         <v>258</v>
@@ -21338,10 +21338,10 @@
         <v>177</v>
       </c>
       <c r="CK46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM46">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>469</v>
       </c>
       <c r="Y47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z47" t="s">
         <v>212</v>
@@ -21586,7 +21586,7 @@
         <v>469</v>
       </c>
       <c r="AI47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ47" t="s">
         <v>212</v>
@@ -21679,7 +21679,7 @@
         <v>469</v>
       </c>
       <c r="BN47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BO47" t="s">
         <v>212</v>
@@ -21721,7 +21721,7 @@
         <v>469</v>
       </c>
       <c r="CC47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CD47" t="s">
         <v>212</v>
@@ -21847,7 +21847,7 @@
         <v>170</v>
       </c>
       <c r="EB47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC47">
         <v>0</v>
@@ -22780,7 +22780,7 @@
         <v>453</v>
       </c>
       <c r="X50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y50" t="s">
         <v>177</v>
@@ -22789,7 +22789,7 @@
         <v>166</v>
       </c>
       <c r="AA50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -22810,7 +22810,7 @@
         <v>453</v>
       </c>
       <c r="AH50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI50" t="s">
         <v>177</v>
@@ -22819,7 +22819,7 @@
         <v>166</v>
       </c>
       <c r="AK50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL50">
         <v>0</v>
@@ -22903,7 +22903,7 @@
         <v>453</v>
       </c>
       <c r="BM50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BN50" t="s">
         <v>177</v>
@@ -22912,7 +22912,7 @@
         <v>166</v>
       </c>
       <c r="BP50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ50" t="s">
         <v>258</v>
@@ -22933,7 +22933,7 @@
         <v>145</v>
       </c>
       <c r="BX50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BY50">
         <v>0</v>
@@ -22945,7 +22945,7 @@
         <v>453</v>
       </c>
       <c r="CB50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CC50" t="s">
         <v>177</v>
@@ -22954,7 +22954,7 @@
         <v>166</v>
       </c>
       <c r="CE50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF50">
         <v>0</v>
@@ -23496,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="EF51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="EG51">
         <v>0</v>
@@ -23594,13 +23594,13 @@
         <v>459</v>
       </c>
       <c r="W52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="X52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>258</v>
       </c>
       <c r="AH52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ52">
         <v>0</v>
@@ -23717,13 +23717,13 @@
         <v>0</v>
       </c>
       <c r="BL52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BM52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO52" t="s">
         <v>258</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="CI52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CJ52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL52">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="DS52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DT52" t="s">
         <v>197</v>
@@ -25219,10 +25219,10 @@
         <v>460</v>
       </c>
       <c r="W56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y56" t="s">
         <v>214</v>
@@ -25231,13 +25231,13 @@
         <v>258</v>
       </c>
       <c r="AA56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB56" t="s">
         <v>258</v>
       </c>
       <c r="AC56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE56" t="s">
         <v>473</v>
@@ -25246,10 +25246,10 @@
         <v>0</v>
       </c>
       <c r="AG56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI56" t="s">
         <v>214</v>
@@ -25258,13 +25258,13 @@
         <v>0</v>
       </c>
       <c r="AK56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL56">
         <v>0</v>
       </c>
       <c r="AM56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -25339,10 +25339,10 @@
         <v>0</v>
       </c>
       <c r="BL56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN56" t="s">
         <v>214</v>
@@ -25351,13 +25351,13 @@
         <v>258</v>
       </c>
       <c r="BP56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ56" t="s">
         <v>258</v>
       </c>
       <c r="BR56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT56">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="CI56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK56" t="s">
         <v>214</v>
@@ -25417,13 +25417,13 @@
         <v>0</v>
       </c>
       <c r="CM56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN56">
         <v>0</v>
       </c>
       <c r="CO56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CP56">
         <v>0</v>
@@ -25635,7 +25635,7 @@
         <v>0</v>
       </c>
       <c r="AC57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD57">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>258</v>
       </c>
       <c r="BR57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT57">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="CG57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH57">
         <v>0</v>
@@ -26461,7 +26461,7 @@
         <v>214</v>
       </c>
       <c r="Z59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA59">
         <v>0</v>
@@ -26485,10 +26485,10 @@
         <v>214</v>
       </c>
       <c r="AH59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ59" t="s">
         <v>258</v>
@@ -26695,13 +26695,13 @@
         <v>0</v>
       </c>
       <c r="DA59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB59">
         <v>0</v>
       </c>
       <c r="DC59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD59">
         <v>0</v>
@@ -26907,7 +26907,7 @@
         <v>258</v>
       </c>
       <c r="AJ60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK60">
         <v>0</v>
@@ -27006,7 +27006,7 @@
         <v>258</v>
       </c>
       <c r="BQ60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR60" t="s">
         <v>258</v>
@@ -27048,7 +27048,7 @@
         <v>258</v>
       </c>
       <c r="CF60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG60">
         <v>0</v>
@@ -27123,7 +27123,7 @@
         <v>0</v>
       </c>
       <c r="DE60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DF60">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>461</v>
       </c>
       <c r="EH61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EI61">
         <v>0</v>
@@ -27688,10 +27688,10 @@
         <v>459</v>
       </c>
       <c r="W62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y62" t="s">
         <v>184</v>
@@ -27718,10 +27718,10 @@
         <v>0</v>
       </c>
       <c r="AG62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AH62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI62" t="s">
         <v>184</v>
@@ -27811,10 +27811,10 @@
         <v>0</v>
       </c>
       <c r="BL62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BM62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BN62" t="s">
         <v>184</v>
@@ -27877,10 +27877,10 @@
         <v>0</v>
       </c>
       <c r="CI62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CJ62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CK62" t="s">
         <v>184</v>
@@ -28092,7 +28092,7 @@
         <v>459</v>
       </c>
       <c r="W63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X63" t="s">
         <v>208</v>
@@ -28104,7 +28104,7 @@
         <v>461</v>
       </c>
       <c r="AA63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -28134,7 +28134,7 @@
         <v>461</v>
       </c>
       <c r="AK63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL63">
         <v>0</v>
@@ -28215,7 +28215,7 @@
         <v>0</v>
       </c>
       <c r="BL63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BM63" t="s">
         <v>208</v>
@@ -28227,7 +28227,7 @@
         <v>461</v>
       </c>
       <c r="BP63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ63" t="s">
         <v>258</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="CI63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CJ63" t="s">
         <v>208</v>
@@ -28293,7 +28293,7 @@
         <v>461</v>
       </c>
       <c r="CM63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN63">
         <v>0</v>
@@ -28401,7 +28401,7 @@
         <v>0</v>
       </c>
       <c r="EF63" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="EG63">
         <v>0</v>
@@ -28942,7 +28942,7 @@
         <v>0</v>
       </c>
       <c r="AG65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AH65" t="s">
         <v>175</v>
@@ -28954,7 +28954,7 @@
         <v>0</v>
       </c>
       <c r="AK65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL65">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>477</v>
       </c>
       <c r="BM65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BN65" t="s">
         <v>210</v>
@@ -29047,7 +29047,7 @@
         <v>258</v>
       </c>
       <c r="BP65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ65" t="s">
         <v>258</v>
@@ -29104,7 +29104,7 @@
         <v>477</v>
       </c>
       <c r="CJ65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CK65" t="s">
         <v>210</v>
@@ -29113,7 +29113,7 @@
         <v>0</v>
       </c>
       <c r="CM65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN65">
         <v>0</v>
@@ -29149,7 +29149,7 @@
         <v>0</v>
       </c>
       <c r="CY65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CZ65">
         <v>0</v>
@@ -29301,10 +29301,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P66" t="s">
         <v>258</v>
@@ -29331,7 +29331,7 @@
         <v>464</v>
       </c>
       <c r="X66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y66" t="s">
         <v>180</v>
@@ -29367,7 +29367,7 @@
         <v>453</v>
       </c>
       <c r="AJ66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK66">
         <v>0</v>
@@ -29454,13 +29454,13 @@
         <v>478</v>
       </c>
       <c r="BM66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BN66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BO66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP66" t="s">
         <v>258</v>
@@ -29520,13 +29520,13 @@
         <v>478</v>
       </c>
       <c r="CJ66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CK66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CL66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM66">
         <v>0</v>
@@ -29598,7 +29598,7 @@
         <v>0</v>
       </c>
       <c r="DP66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DQ66" t="s">
         <v>258</v>
@@ -29625,7 +29625,7 @@
         <v>205</v>
       </c>
       <c r="DY66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DZ66" t="s">
         <v>258</v>
@@ -29744,7 +29744,7 @@
         <v>191</v>
       </c>
       <c r="X67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y67" t="s">
         <v>177</v>
@@ -29753,7 +29753,7 @@
         <v>166</v>
       </c>
       <c r="AA67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB67" t="s">
         <v>214</v>
@@ -29774,7 +29774,7 @@
         <v>191</v>
       </c>
       <c r="AH67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI67" t="s">
         <v>177</v>
@@ -29783,7 +29783,7 @@
         <v>166</v>
       </c>
       <c r="AK67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL67" t="s">
         <v>214</v>
@@ -29867,7 +29867,7 @@
         <v>191</v>
       </c>
       <c r="BM67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BN67" t="s">
         <v>177</v>
@@ -29876,7 +29876,7 @@
         <v>166</v>
       </c>
       <c r="BP67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ67" t="s">
         <v>214</v>
@@ -29909,7 +29909,7 @@
         <v>191</v>
       </c>
       <c r="CB67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CC67" t="s">
         <v>177</v>
@@ -29918,7 +29918,7 @@
         <v>166</v>
       </c>
       <c r="CE67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF67" t="s">
         <v>214</v>
@@ -30445,7 +30445,7 @@
         <v>258</v>
       </c>
       <c r="EA68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EB68" t="s">
         <v>258</v>
@@ -31369,13 +31369,13 @@
         <v>215</v>
       </c>
       <c r="X71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y71" t="s">
         <v>214</v>
       </c>
       <c r="Z71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA71">
         <v>0</v>
@@ -31399,13 +31399,13 @@
         <v>215</v>
       </c>
       <c r="AH71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI71" t="s">
         <v>214</v>
       </c>
       <c r="AJ71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -31492,13 +31492,13 @@
         <v>215</v>
       </c>
       <c r="BM71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN71" t="s">
         <v>214</v>
       </c>
       <c r="BO71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP71" t="s">
         <v>258</v>
@@ -31558,13 +31558,13 @@
         <v>215</v>
       </c>
       <c r="CJ71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK71" t="s">
         <v>214</v>
       </c>
       <c r="CL71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM71">
         <v>0</v>
@@ -31779,7 +31779,7 @@
         <v>0</v>
       </c>
       <c r="Y72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z72" t="s">
         <v>461</v>
@@ -33024,7 +33024,7 @@
         <v>170</v>
       </c>
       <c r="Z75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA75">
         <v>0</v>
@@ -33054,7 +33054,7 @@
         <v>170</v>
       </c>
       <c r="AJ75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK75">
         <v>0</v>
@@ -33147,7 +33147,7 @@
         <v>170</v>
       </c>
       <c r="BO75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP75" t="s">
         <v>258</v>
@@ -33213,7 +33213,7 @@
         <v>170</v>
       </c>
       <c r="CL75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM75">
         <v>0</v>
@@ -33428,7 +33428,7 @@
         <v>215</v>
       </c>
       <c r="Z76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA76">
         <v>0</v>
@@ -33458,7 +33458,7 @@
         <v>215</v>
       </c>
       <c r="AJ76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK76">
         <v>0</v>
@@ -33551,7 +33551,7 @@
         <v>215</v>
       </c>
       <c r="BO76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP76" t="s">
         <v>258</v>
@@ -33617,7 +33617,7 @@
         <v>215</v>
       </c>
       <c r="CL76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM76">
         <v>0</v>
@@ -33829,13 +33829,13 @@
         <v>189</v>
       </c>
       <c r="X77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y77" t="s">
         <v>178</v>
       </c>
       <c r="Z77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA77">
         <v>0</v>
@@ -33859,13 +33859,13 @@
         <v>189</v>
       </c>
       <c r="AH77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI77" t="s">
         <v>178</v>
       </c>
       <c r="AJ77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK77">
         <v>0</v>
@@ -33952,13 +33952,13 @@
         <v>189</v>
       </c>
       <c r="BM77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BN77" t="s">
         <v>178</v>
       </c>
       <c r="BO77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP77" t="s">
         <v>258</v>
@@ -34018,13 +34018,13 @@
         <v>189</v>
       </c>
       <c r="CJ77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CK77" t="s">
         <v>178</v>
       </c>
       <c r="CL77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM77">
         <v>0</v>
@@ -34239,10 +34239,10 @@
         <v>169</v>
       </c>
       <c r="Z78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB78">
         <v>0</v>
@@ -34269,10 +34269,10 @@
         <v>169</v>
       </c>
       <c r="AJ78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL78">
         <v>0</v>
@@ -34362,10 +34362,10 @@
         <v>169</v>
       </c>
       <c r="BO78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ78" t="s">
         <v>258</v>
@@ -34428,10 +34428,10 @@
         <v>169</v>
       </c>
       <c r="CL78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN78">
         <v>0</v>
@@ -34643,7 +34643,7 @@
         <v>168</v>
       </c>
       <c r="Y79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -34673,7 +34673,7 @@
         <v>168</v>
       </c>
       <c r="AI79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ79">
         <v>0</v>
@@ -34766,7 +34766,7 @@
         <v>168</v>
       </c>
       <c r="BN79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO79" t="s">
         <v>258</v>
@@ -34808,7 +34808,7 @@
         <v>168</v>
       </c>
       <c r="CC79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD79">
         <v>0</v>
@@ -35047,7 +35047,7 @@
         <v>180</v>
       </c>
       <c r="Y80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -35077,7 +35077,7 @@
         <v>180</v>
       </c>
       <c r="AI80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ80">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>180</v>
       </c>
       <c r="BN80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO80" t="s">
         <v>258</v>
@@ -35236,7 +35236,7 @@
         <v>180</v>
       </c>
       <c r="CK80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL80">
         <v>0</v>
@@ -35460,7 +35460,7 @@
         <v>214</v>
       </c>
       <c r="AA81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>214</v>
       </c>
       <c r="BP81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ81" t="s">
         <v>258</v>
@@ -35649,7 +35649,7 @@
         <v>214</v>
       </c>
       <c r="CM81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN81">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>214</v>
       </c>
       <c r="AA87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>214</v>
       </c>
       <c r="AK87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL87">
         <v>0</v>
@@ -38052,7 +38052,7 @@
         <v>214</v>
       </c>
       <c r="BP87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ87" t="s">
         <v>258</v>
@@ -38118,7 +38118,7 @@
         <v>214</v>
       </c>
       <c r="CM87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN87">
         <v>0</v>
@@ -38746,10 +38746,10 @@
         <v>180</v>
       </c>
       <c r="X89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z89" t="s">
         <v>461</v>
@@ -38869,10 +38869,10 @@
         <v>180</v>
       </c>
       <c r="BM89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO89" t="s">
         <v>461</v>
@@ -38935,10 +38935,10 @@
         <v>180</v>
       </c>
       <c r="CJ89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL89" t="s">
         <v>461</v>
@@ -39982,7 +39982,7 @@
         <v>0</v>
       </c>
       <c r="Z92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA92">
         <v>0</v>
@@ -40105,7 +40105,7 @@
         <v>258</v>
       </c>
       <c r="BO92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP92" t="s">
         <v>258</v>
@@ -40171,7 +40171,7 @@
         <v>0</v>
       </c>
       <c r="CL92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM92">
         <v>0</v>
@@ -42430,7 +42430,7 @@
         <v>331</v>
       </c>
       <c r="U98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V98" t="s">
         <v>459</v>
@@ -42445,7 +42445,7 @@
         <v>214</v>
       </c>
       <c r="Z98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA98">
         <v>0</v>
@@ -42475,7 +42475,7 @@
         <v>214</v>
       </c>
       <c r="AJ98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -42559,7 +42559,7 @@
         <v>0</v>
       </c>
       <c r="BL98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BM98" t="s">
         <v>169</v>
@@ -42568,7 +42568,7 @@
         <v>214</v>
       </c>
       <c r="BO98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP98" t="s">
         <v>258</v>
@@ -42625,7 +42625,7 @@
         <v>0</v>
       </c>
       <c r="CI98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CJ98" t="s">
         <v>169</v>
@@ -42634,7 +42634,7 @@
         <v>214</v>
       </c>
       <c r="CL98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM98">
         <v>0</v>
@@ -42709,7 +42709,7 @@
         <v>0</v>
       </c>
       <c r="DS98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DT98" t="s">
         <v>175</v>
@@ -43286,7 +43286,7 @@
         <v>191</v>
       </c>
       <c r="Y100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -43409,7 +43409,7 @@
         <v>191</v>
       </c>
       <c r="BN100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO100" t="s">
         <v>258</v>
@@ -43475,7 +43475,7 @@
         <v>191</v>
       </c>
       <c r="CK100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL100">
         <v>0</v>
@@ -43693,10 +43693,10 @@
         <v>459</v>
       </c>
       <c r="W101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y101">
         <v>0</v>
@@ -43726,7 +43726,7 @@
         <v>258</v>
       </c>
       <c r="AH101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI101">
         <v>0</v>
@@ -43816,10 +43816,10 @@
         <v>0</v>
       </c>
       <c r="BL101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BM101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN101" t="s">
         <v>258</v>
@@ -43882,10 +43882,10 @@
         <v>0</v>
       </c>
       <c r="CI101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CJ101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK101">
         <v>0</v>
@@ -43966,7 +43966,7 @@
         <v>0</v>
       </c>
       <c r="DS101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DT101" t="s">
         <v>216</v>
@@ -44005,7 +44005,7 @@
         <v>0</v>
       </c>
       <c r="EF101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG101">
         <v>0</v>
@@ -44525,7 +44525,7 @@
         <v>461</v>
       </c>
       <c r="AA103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -44543,7 +44543,7 @@
         <v>0</v>
       </c>
       <c r="AG103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH103" t="s">
         <v>214</v>
@@ -44648,7 +44648,7 @@
         <v>461</v>
       </c>
       <c r="BP103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ103" t="s">
         <v>258</v>
@@ -44714,7 +44714,7 @@
         <v>461</v>
       </c>
       <c r="CM103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN103">
         <v>0</v>
@@ -44750,7 +44750,7 @@
         <v>0</v>
       </c>
       <c r="CY103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ103">
         <v>0</v>
@@ -44798,7 +44798,7 @@
         <v>258</v>
       </c>
       <c r="DS103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DT103" t="s">
         <v>167</v>
@@ -45345,13 +45345,13 @@
         <v>0</v>
       </c>
       <c r="X105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA105">
         <v>0</v>
@@ -45360,7 +45360,7 @@
         <v>461</v>
       </c>
       <c r="AC105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD105">
         <v>0</v>
@@ -45375,13 +45375,13 @@
         <v>0</v>
       </c>
       <c r="AH105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK105">
         <v>0</v>
@@ -45390,7 +45390,7 @@
         <v>461</v>
       </c>
       <c r="AM105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN105">
         <v>0</v>
@@ -45468,13 +45468,13 @@
         <v>258</v>
       </c>
       <c r="BM105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP105" t="s">
         <v>258</v>
@@ -45483,7 +45483,7 @@
         <v>461</v>
       </c>
       <c r="BR105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT105">
         <v>0</v>
@@ -45510,13 +45510,13 @@
         <v>0</v>
       </c>
       <c r="CB105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CC105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE105">
         <v>0</v>
@@ -45525,7 +45525,7 @@
         <v>461</v>
       </c>
       <c r="CG105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH105">
         <v>0</v>
@@ -45704,7 +45704,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -45715,8 +45715,8 @@
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106">
-        <v>0</v>
+      <c r="M106" t="s">
+        <v>257</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -45725,7 +45725,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -45740,10 +45740,10 @@
         <v>338</v>
       </c>
       <c r="U106" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="V106" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W106" t="s">
         <v>461</v>
@@ -45752,25 +45752,22 @@
         <v>170</v>
       </c>
       <c r="Y106" t="s">
-        <v>461</v>
+        <v>174</v>
       </c>
       <c r="Z106" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA106">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>215</v>
       </c>
       <c r="AB106" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AC106" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD106">
-        <v>0</v>
-      </c>
-      <c r="AE106">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>473</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -45782,19 +45779,19 @@
         <v>170</v>
       </c>
       <c r="AI106" t="s">
-        <v>461</v>
+        <v>174</v>
       </c>
       <c r="AJ106" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK106">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>215</v>
       </c>
       <c r="AL106" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AM106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN106">
         <v>0</v>
@@ -45875,19 +45872,19 @@
         <v>170</v>
       </c>
       <c r="BN106" t="s">
-        <v>461</v>
+        <v>174</v>
       </c>
       <c r="BO106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BP106" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="BQ106" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="BR106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT106">
         <v>0</v>
@@ -45904,56 +45901,56 @@
       <c r="BX106" t="s">
         <v>258</v>
       </c>
-      <c r="BY106">
-        <v>0</v>
+      <c r="BY106" t="s">
+        <v>748</v>
       </c>
       <c r="BZ106">
         <v>0</v>
       </c>
       <c r="CA106" t="s">
+        <v>258</v>
+      </c>
+      <c r="CB106" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC106" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD106" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE106" t="s">
+        <v>258</v>
+      </c>
+      <c r="CF106" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG106" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH106">
+        <v>0</v>
+      </c>
+      <c r="CI106" t="s">
         <v>461</v>
       </c>
-      <c r="CB106" t="s">
+      <c r="CJ106" t="s">
         <v>170</v>
       </c>
-      <c r="CC106" t="s">
-        <v>461</v>
-      </c>
-      <c r="CD106" t="s">
-        <v>214</v>
-      </c>
-      <c r="CE106">
-        <v>0</v>
-      </c>
-      <c r="CF106" t="s">
-        <v>214</v>
-      </c>
-      <c r="CG106" t="s">
-        <v>233</v>
-      </c>
-      <c r="CH106">
-        <v>0</v>
-      </c>
-      <c r="CI106">
-        <v>0</v>
-      </c>
-      <c r="CJ106">
-        <v>0</v>
-      </c>
-      <c r="CK106">
-        <v>0</v>
-      </c>
-      <c r="CL106">
-        <v>0</v>
-      </c>
-      <c r="CM106">
-        <v>0</v>
-      </c>
-      <c r="CN106">
-        <v>0</v>
-      </c>
-      <c r="CO106">
-        <v>0</v>
+      <c r="CK106" t="s">
+        <v>174</v>
+      </c>
+      <c r="CL106" t="s">
+        <v>215</v>
+      </c>
+      <c r="CM106" t="s">
+        <v>215</v>
+      </c>
+      <c r="CN106" t="s">
+        <v>191</v>
+      </c>
+      <c r="CO106" t="s">
+        <v>234</v>
       </c>
       <c r="CP106">
         <v>0</v>
@@ -46009,17 +46006,11 @@
       <c r="DP106" t="s">
         <v>258</v>
       </c>
-      <c r="DQ106" t="s">
-        <v>258</v>
-      </c>
       <c r="DR106">
         <v>0</v>
       </c>
-      <c r="DS106" t="s">
-        <v>258</v>
-      </c>
       <c r="DT106" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="DU106">
         <v>0</v>
@@ -46028,10 +46019,10 @@
         <v>258</v>
       </c>
       <c r="DW106" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="DX106" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="DY106" t="s">
         <v>258</v>
@@ -46040,10 +46031,10 @@
         <v>258</v>
       </c>
       <c r="EA106" t="s">
-        <v>258</v>
-      </c>
-      <c r="EB106" t="s">
-        <v>258</v>
+        <v>178</v>
+      </c>
+      <c r="EB106">
+        <v>0</v>
       </c>
       <c r="EC106">
         <v>0</v>
@@ -46055,7 +46046,7 @@
         <v>0</v>
       </c>
       <c r="EF106" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="EG106">
         <v>0</v>
@@ -46575,7 +46566,7 @@
         <v>214</v>
       </c>
       <c r="Z108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA108">
         <v>0</v>
@@ -46605,7 +46596,7 @@
         <v>214</v>
       </c>
       <c r="AJ108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK108">
         <v>0</v>
@@ -46698,7 +46689,7 @@
         <v>214</v>
       </c>
       <c r="BO108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP108" t="s">
         <v>258</v>
@@ -46740,7 +46731,7 @@
         <v>214</v>
       </c>
       <c r="CD108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE108">
         <v>0</v>
@@ -46931,7 +46922,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -46976,7 +46967,7 @@
         <v>215</v>
       </c>
       <c r="X109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y109" t="s">
         <v>209</v>
@@ -46985,7 +46976,7 @@
         <v>184</v>
       </c>
       <c r="AA109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB109" t="s">
         <v>169</v>
@@ -47105,7 +47096,7 @@
         <v>464</v>
       </c>
       <c r="BO109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BP109" t="s">
         <v>184</v>
@@ -47129,7 +47120,7 @@
         <v>145</v>
       </c>
       <c r="BX109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BY109">
         <v>0</v>
@@ -47141,7 +47132,7 @@
         <v>215</v>
       </c>
       <c r="CB109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CC109" t="s">
         <v>209</v>
@@ -47150,7 +47141,7 @@
         <v>184</v>
       </c>
       <c r="CE109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CF109" t="s">
         <v>169</v>
@@ -47162,7 +47153,7 @@
         <v>0</v>
       </c>
       <c r="CI109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ109" t="s">
         <v>215</v>
@@ -47177,7 +47168,7 @@
         <v>461</v>
       </c>
       <c r="CN109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO109">
         <v>0</v>
@@ -47264,7 +47255,7 @@
         <v>209</v>
       </c>
       <c r="DT109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="DU109">
         <v>0</v>
@@ -47288,7 +47279,7 @@
         <v>461</v>
       </c>
       <c r="EB109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC109">
         <v>0</v>
@@ -47356,7 +47347,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J110" t="s">
         <v>252</v>
@@ -47371,10 +47362,10 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P110" t="s">
         <v>258</v>
@@ -47416,7 +47407,7 @@
         <v>178</v>
       </c>
       <c r="AC110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD110" t="s">
         <v>214</v>
@@ -47437,7 +47428,7 @@
         <v>172</v>
       </c>
       <c r="AJ110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK110" t="s">
         <v>178</v>
@@ -47446,7 +47437,7 @@
         <v>174</v>
       </c>
       <c r="AM110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN110" t="s">
         <v>214</v>
@@ -47539,7 +47530,7 @@
         <v>178</v>
       </c>
       <c r="BR110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BS110" t="s">
         <v>214</v>
@@ -47584,7 +47575,7 @@
         <v>178</v>
       </c>
       <c r="CG110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH110" t="s">
         <v>214</v>
@@ -47653,7 +47644,7 @@
         <v>0</v>
       </c>
       <c r="DE110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DF110">
         <v>0</v>
@@ -47677,7 +47668,7 @@
         <v>0</v>
       </c>
       <c r="DP110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DQ110" t="s">
         <v>258</v>
@@ -47689,7 +47680,7 @@
         <v>479</v>
       </c>
       <c r="DT110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="DU110">
         <v>0</v>
@@ -47698,7 +47689,7 @@
         <v>258</v>
       </c>
       <c r="DW110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="DX110" t="s">
         <v>258</v>
@@ -47713,7 +47704,7 @@
         <v>180</v>
       </c>
       <c r="EB110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC110">
         <v>0</v>
@@ -47781,7 +47772,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -47817,7 +47808,7 @@
         <v>341</v>
       </c>
       <c r="U111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V111" t="s">
         <v>459</v>
@@ -47853,7 +47844,7 @@
         <v>0</v>
       </c>
       <c r="AG111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH111" t="s">
         <v>461</v>
@@ -47862,7 +47853,7 @@
         <v>215</v>
       </c>
       <c r="AJ111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK111">
         <v>0</v>
@@ -48060,7 +48051,7 @@
         <v>0</v>
       </c>
       <c r="CY111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ111">
         <v>0</v>
@@ -48078,7 +48069,7 @@
         <v>0</v>
       </c>
       <c r="DE111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DF111">
         <v>0</v>
@@ -48105,10 +48096,10 @@
         <v>258</v>
       </c>
       <c r="DS111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DT111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DU111">
         <v>0</v>
@@ -48120,7 +48111,7 @@
         <v>258</v>
       </c>
       <c r="DX111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DY111" t="s">
         <v>258</v>
@@ -48251,7 +48242,7 @@
         <v>214</v>
       </c>
       <c r="AA112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB112" t="s">
         <v>214</v>
@@ -48374,7 +48365,7 @@
         <v>214</v>
       </c>
       <c r="BP112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ112" t="s">
         <v>214</v>
@@ -48416,7 +48407,7 @@
         <v>214</v>
       </c>
       <c r="CE112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF112" t="s">
         <v>214</v>
@@ -48664,7 +48655,7 @@
         <v>0</v>
       </c>
       <c r="X113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y113" t="s">
         <v>178</v>
@@ -48694,13 +48685,13 @@
         <v>0</v>
       </c>
       <c r="AH113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI113" t="s">
         <v>180</v>
       </c>
       <c r="AJ113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -48787,7 +48778,7 @@
         <v>258</v>
       </c>
       <c r="BM113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN113" t="s">
         <v>178</v>
@@ -48853,7 +48844,7 @@
         <v>0</v>
       </c>
       <c r="CJ113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK113" t="s">
         <v>178</v>
@@ -48910,7 +48901,7 @@
         <v>0</v>
       </c>
       <c r="DE113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DF113">
         <v>0</v>
@@ -49891,7 +49882,7 @@
         <v>169</v>
       </c>
       <c r="Y116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z116">
         <v>0</v>
@@ -49915,13 +49906,13 @@
         <v>0</v>
       </c>
       <c r="AG116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH116" t="s">
         <v>180</v>
       </c>
       <c r="AI116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ116">
         <v>0</v>
@@ -50014,7 +50005,7 @@
         <v>169</v>
       </c>
       <c r="BN116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO116" t="s">
         <v>258</v>
@@ -50080,7 +50071,7 @@
         <v>169</v>
       </c>
       <c r="CK116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL116">
         <v>0</v>
@@ -50122,7 +50113,7 @@
         <v>0</v>
       </c>
       <c r="CY116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ116">
         <v>0</v>
@@ -50307,7 +50298,7 @@
         <v>191</v>
       </c>
       <c r="Z117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA117">
         <v>0</v>
@@ -50337,7 +50328,7 @@
         <v>191</v>
       </c>
       <c r="AJ117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK117">
         <v>0</v>
@@ -50430,7 +50421,7 @@
         <v>191</v>
       </c>
       <c r="BO117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP117" t="s">
         <v>258</v>
@@ -50472,7 +50463,7 @@
         <v>191</v>
       </c>
       <c r="CD117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE117">
         <v>0</v>
@@ -50586,7 +50577,7 @@
         <v>258</v>
       </c>
       <c r="DY117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DZ117">
         <v>0</v>
@@ -50663,7 +50654,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -50699,7 +50690,7 @@
         <v>346</v>
       </c>
       <c r="U118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V118" t="s">
         <v>459</v>
@@ -50714,7 +50705,7 @@
         <v>461</v>
       </c>
       <c r="Z118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA118" t="s">
         <v>214</v>
@@ -50723,7 +50714,7 @@
         <v>0</v>
       </c>
       <c r="AC118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD118">
         <v>0</v>
@@ -50744,7 +50735,7 @@
         <v>461</v>
       </c>
       <c r="AJ118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK118" t="s">
         <v>214</v>
@@ -50753,7 +50744,7 @@
         <v>0</v>
       </c>
       <c r="AM118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN118">
         <v>0</v>
@@ -50837,7 +50828,7 @@
         <v>461</v>
       </c>
       <c r="BO118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP118" t="s">
         <v>214</v>
@@ -50846,7 +50837,7 @@
         <v>258</v>
       </c>
       <c r="BR118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT118">
         <v>0</v>
@@ -50879,7 +50870,7 @@
         <v>461</v>
       </c>
       <c r="CD118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE118" t="s">
         <v>214</v>
@@ -50888,7 +50879,7 @@
         <v>0</v>
       </c>
       <c r="CG118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH118">
         <v>0</v>
@@ -50978,7 +50969,7 @@
         <v>258</v>
       </c>
       <c r="DT118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DU118">
         <v>0</v>
@@ -50987,7 +50978,7 @@
         <v>258</v>
       </c>
       <c r="DW118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DX118" t="s">
         <v>258</v>
@@ -51014,7 +51005,7 @@
         <v>0</v>
       </c>
       <c r="EF118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="EG118">
         <v>0</v>
@@ -51070,7 +51061,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -51106,16 +51097,16 @@
         <v>347</v>
       </c>
       <c r="U119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V119" t="s">
         <v>459</v>
       </c>
       <c r="W119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X119" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y119" t="s">
         <v>192</v>
@@ -51142,10 +51133,10 @@
         <v>0</v>
       </c>
       <c r="AG119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AH119" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI119" t="s">
         <v>192</v>
@@ -51235,10 +51226,10 @@
         <v>0</v>
       </c>
       <c r="BL119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BM119" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BN119" t="s">
         <v>192</v>
@@ -51277,10 +51268,10 @@
         <v>0</v>
       </c>
       <c r="CA119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CB119" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CC119" t="s">
         <v>192</v>
@@ -51385,7 +51376,7 @@
         <v>258</v>
       </c>
       <c r="DT119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="DU119">
         <v>0</v>
@@ -51394,7 +51385,7 @@
         <v>258</v>
       </c>
       <c r="DW119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="DX119" t="s">
         <v>258</v>
@@ -51406,7 +51397,7 @@
         <v>258</v>
       </c>
       <c r="EB119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC119">
         <v>0</v>
@@ -51418,7 +51409,7 @@
         <v>0</v>
       </c>
       <c r="EF119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="EG119">
         <v>0</v>
@@ -51474,7 +51465,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -51510,7 +51501,7 @@
         <v>347</v>
       </c>
       <c r="U120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V120" t="s">
         <v>459</v>
@@ -51792,7 +51783,7 @@
         <v>212</v>
       </c>
       <c r="DT120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DU120">
         <v>0</v>
@@ -51801,7 +51792,7 @@
         <v>258</v>
       </c>
       <c r="DW120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DX120" t="s">
         <v>258</v>
@@ -51926,7 +51917,7 @@
         <v>459</v>
       </c>
       <c r="W121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X121" t="s">
         <v>178</v>
@@ -51962,7 +51953,7 @@
         <v>180</v>
       </c>
       <c r="AI121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ121">
         <v>0</v>
@@ -52049,7 +52040,7 @@
         <v>0</v>
       </c>
       <c r="BL121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BM121" t="s">
         <v>178</v>
@@ -52115,7 +52106,7 @@
         <v>0</v>
       </c>
       <c r="CI121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CJ121" t="s">
         <v>178</v>
@@ -52175,7 +52166,7 @@
         <v>0</v>
       </c>
       <c r="DC121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD121">
         <v>0</v>
@@ -52205,7 +52196,7 @@
         <v>0</v>
       </c>
       <c r="DS121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DT121" t="s">
         <v>216</v>
@@ -53596,7 +53587,7 @@
         <v>215</v>
       </c>
       <c r="Y125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z125">
         <v>0</v>
@@ -53626,7 +53617,7 @@
         <v>215</v>
       </c>
       <c r="AI125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ125">
         <v>0</v>
@@ -53719,7 +53710,7 @@
         <v>215</v>
       </c>
       <c r="BN125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO125" t="s">
         <v>258</v>
@@ -53761,7 +53752,7 @@
         <v>215</v>
       </c>
       <c r="CC125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD125">
         <v>0</v>
@@ -53994,13 +53985,13 @@
         <v>459</v>
       </c>
       <c r="W126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X126">
         <v>0</v>
       </c>
       <c r="Y126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z126">
         <v>0</v>
@@ -54024,13 +54015,13 @@
         <v>0</v>
       </c>
       <c r="AG126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH126">
         <v>0</v>
       </c>
       <c r="AI126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ126">
         <v>0</v>
@@ -54117,13 +54108,13 @@
         <v>0</v>
       </c>
       <c r="BL126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM126" t="s">
         <v>258</v>
       </c>
       <c r="BN126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO126" t="s">
         <v>258</v>
@@ -54183,13 +54174,13 @@
         <v>0</v>
       </c>
       <c r="CI126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ126">
         <v>0</v>
       </c>
       <c r="CK126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL126">
         <v>0</v>
@@ -54410,7 +54401,7 @@
         <v>180</v>
       </c>
       <c r="Z127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA127">
         <v>0</v>
@@ -54440,7 +54431,7 @@
         <v>180</v>
       </c>
       <c r="AJ127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK127">
         <v>0</v>
@@ -54533,7 +54524,7 @@
         <v>180</v>
       </c>
       <c r="BO127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP127" t="s">
         <v>258</v>
@@ -54599,7 +54590,7 @@
         <v>180</v>
       </c>
       <c r="CL127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM127">
         <v>0</v>
@@ -55218,7 +55209,7 @@
         <v>461</v>
       </c>
       <c r="Y129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z129">
         <v>0</v>
@@ -55248,7 +55239,7 @@
         <v>461</v>
       </c>
       <c r="AI129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ129">
         <v>0</v>
@@ -55341,7 +55332,7 @@
         <v>461</v>
       </c>
       <c r="BN129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO129" t="s">
         <v>258</v>
@@ -55410,7 +55401,7 @@
         <v>461</v>
       </c>
       <c r="CK129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL129">
         <v>0</v>
@@ -55655,7 +55646,7 @@
         <v>0</v>
       </c>
       <c r="AG130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH130" t="s">
         <v>461</v>
@@ -55862,7 +55853,7 @@
         <v>0</v>
       </c>
       <c r="CY130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ130">
         <v>0</v>
@@ -55990,7 +55981,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -56026,7 +56017,7 @@
         <v>356</v>
       </c>
       <c r="U131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V131" t="s">
         <v>459</v>
@@ -56035,7 +56026,7 @@
         <v>216</v>
       </c>
       <c r="X131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y131" t="s">
         <v>206</v>
@@ -56065,7 +56056,7 @@
         <v>216</v>
       </c>
       <c r="AH131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AI131" t="s">
         <v>206</v>
@@ -56158,7 +56149,7 @@
         <v>216</v>
       </c>
       <c r="BM131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BN131" t="s">
         <v>206</v>
@@ -56200,7 +56191,7 @@
         <v>216</v>
       </c>
       <c r="CB131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CC131" t="s">
         <v>206</v>
@@ -56305,7 +56296,7 @@
         <v>258</v>
       </c>
       <c r="DT131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DU131">
         <v>0</v>
@@ -56314,7 +56305,7 @@
         <v>258</v>
       </c>
       <c r="DW131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DX131" t="s">
         <v>258</v>
@@ -56329,7 +56320,7 @@
         <v>180</v>
       </c>
       <c r="EB131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC131">
         <v>0</v>
@@ -56341,7 +56332,7 @@
         <v>0</v>
       </c>
       <c r="EF131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="EG131">
         <v>0</v>
@@ -56388,7 +56379,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -56424,7 +56415,7 @@
         <v>356</v>
       </c>
       <c r="U132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V132" t="s">
         <v>459</v>
@@ -56703,7 +56694,7 @@
         <v>258</v>
       </c>
       <c r="DT132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DU132">
         <v>0</v>
@@ -56712,13 +56703,13 @@
         <v>258</v>
       </c>
       <c r="DW132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DX132" t="s">
         <v>258</v>
       </c>
       <c r="DY132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DZ132" t="s">
         <v>258</v>
@@ -56739,7 +56730,7 @@
         <v>0</v>
       </c>
       <c r="EF132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="EG132">
         <v>0</v>
@@ -56864,7 +56855,7 @@
         <v>0</v>
       </c>
       <c r="AG133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH133" t="s">
         <v>258</v>
@@ -56960,7 +56951,7 @@
         <v>461</v>
       </c>
       <c r="BM133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN133" t="s">
         <v>258</v>
@@ -57026,7 +57017,7 @@
         <v>461</v>
       </c>
       <c r="CJ133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK133">
         <v>0</v>
@@ -57071,7 +57062,7 @@
         <v>0</v>
       </c>
       <c r="CY133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ133">
         <v>0</v>
@@ -57149,7 +57140,7 @@
         <v>0</v>
       </c>
       <c r="EF133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG133">
         <v>0</v>
@@ -57205,7 +57196,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -57241,7 +57232,7 @@
         <v>358</v>
       </c>
       <c r="U134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V134" t="s">
         <v>459</v>
@@ -57283,10 +57274,10 @@
         <v>214</v>
       </c>
       <c r="AI134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK134">
         <v>0</v>
@@ -57496,13 +57487,13 @@
         <v>0</v>
       </c>
       <c r="DC134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD134">
         <v>0</v>
       </c>
       <c r="DE134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DF134">
         <v>0</v>
@@ -57532,7 +57523,7 @@
         <v>453</v>
       </c>
       <c r="DT134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DU134">
         <v>0</v>
@@ -57544,7 +57535,7 @@
         <v>258</v>
       </c>
       <c r="DX134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DY134" t="s">
         <v>258</v>
@@ -57663,13 +57654,13 @@
         <v>459</v>
       </c>
       <c r="W135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X135" t="s">
         <v>461</v>
       </c>
       <c r="Y135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z135">
         <v>0</v>
@@ -57693,13 +57684,13 @@
         <v>0</v>
       </c>
       <c r="AG135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH135" t="s">
         <v>461</v>
       </c>
       <c r="AI135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ135">
         <v>0</v>
@@ -57786,13 +57777,13 @@
         <v>0</v>
       </c>
       <c r="BL135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM135" t="s">
         <v>461</v>
       </c>
       <c r="BN135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO135" t="s">
         <v>258</v>
@@ -57852,13 +57843,13 @@
         <v>0</v>
       </c>
       <c r="CI135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ135" t="s">
         <v>461</v>
       </c>
       <c r="CK135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL135">
         <v>0</v>
@@ -58076,7 +58067,7 @@
         <v>180</v>
       </c>
       <c r="Z136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA136">
         <v>0</v>
@@ -58199,7 +58190,7 @@
         <v>180</v>
       </c>
       <c r="BO136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP136" t="s">
         <v>258</v>
@@ -58265,7 +58256,7 @@
         <v>180</v>
       </c>
       <c r="CL136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM136">
         <v>0</v>
@@ -58441,7 +58432,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -58477,7 +58468,7 @@
         <v>361</v>
       </c>
       <c r="U137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V137" t="s">
         <v>459</v>
@@ -58762,10 +58753,10 @@
         <v>0</v>
       </c>
       <c r="DS137" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DT137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DU137">
         <v>0</v>
@@ -58777,7 +58768,7 @@
         <v>258</v>
       </c>
       <c r="DX137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DZ137">
         <v>0</v>
@@ -58911,7 +58902,7 @@
         <v>0</v>
       </c>
       <c r="AB138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -58941,7 +58932,7 @@
         <v>0</v>
       </c>
       <c r="AL138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM138">
         <v>0</v>
@@ -59034,7 +59025,7 @@
         <v>258</v>
       </c>
       <c r="BQ138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR138" t="s">
         <v>258</v>
@@ -59100,7 +59091,7 @@
         <v>0</v>
       </c>
       <c r="CN138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO138">
         <v>0</v>
@@ -59184,7 +59175,7 @@
         <v>216</v>
       </c>
       <c r="DY138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DZ138">
         <v>0</v>
@@ -59306,7 +59297,7 @@
         <v>461</v>
       </c>
       <c r="X139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y139">
         <v>0</v>
@@ -59429,7 +59420,7 @@
         <v>461</v>
       </c>
       <c r="BM139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN139" t="s">
         <v>258</v>
@@ -59495,7 +59486,7 @@
         <v>461</v>
       </c>
       <c r="CJ139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK139">
         <v>0</v>
@@ -60081,7 +60072,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -60117,7 +60108,7 @@
         <v>364</v>
       </c>
       <c r="U141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V141" t="s">
         <v>459</v>
@@ -60396,7 +60387,7 @@
         <v>258</v>
       </c>
       <c r="DT141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DU141">
         <v>0</v>
@@ -60405,7 +60396,7 @@
         <v>258</v>
       </c>
       <c r="DW141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DX141" t="s">
         <v>258</v>
@@ -60429,7 +60420,7 @@
         <v>0</v>
       </c>
       <c r="EF141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="EG141">
         <v>0</v>
@@ -60485,7 +60476,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -60521,7 +60512,7 @@
         <v>364</v>
       </c>
       <c r="U142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="V142" t="s">
         <v>459</v>
@@ -60800,7 +60791,7 @@
         <v>258</v>
       </c>
       <c r="DT142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="DU142">
         <v>0</v>
@@ -60809,7 +60800,7 @@
         <v>258</v>
       </c>
       <c r="DW142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="DX142" t="s">
         <v>258</v>
@@ -60836,7 +60827,7 @@
         <v>0</v>
       </c>
       <c r="EF142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="EG142">
         <v>0</v>
@@ -60940,7 +60931,7 @@
         <v>170</v>
       </c>
       <c r="Y143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z143">
         <v>0</v>
@@ -61063,7 +61054,7 @@
         <v>170</v>
       </c>
       <c r="BN143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO143" t="s">
         <v>258</v>
@@ -61105,7 +61096,7 @@
         <v>170</v>
       </c>
       <c r="CC143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD143">
         <v>0</v>
@@ -62200,13 +62191,13 @@
         <v>0</v>
       </c>
       <c r="AG146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ146" t="s">
         <v>214</v>
@@ -62407,19 +62398,19 @@
         <v>0</v>
       </c>
       <c r="CY146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ146">
         <v>0</v>
       </c>
       <c r="DA146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB146">
         <v>0</v>
       </c>
       <c r="DC146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD146">
         <v>0</v>
@@ -62616,7 +62607,7 @@
         <v>258</v>
       </c>
       <c r="AH147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI147" t="s">
         <v>258</v>
@@ -62826,7 +62817,7 @@
         <v>0</v>
       </c>
       <c r="DA147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB147">
         <v>0</v>
@@ -62999,13 +62990,13 @@
         <v>459</v>
       </c>
       <c r="W148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X148" t="s">
         <v>180</v>
       </c>
       <c r="Y148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z148">
         <v>0</v>
@@ -63029,13 +63020,13 @@
         <v>0</v>
       </c>
       <c r="AG148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH148" t="s">
         <v>180</v>
       </c>
       <c r="AI148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ148">
         <v>0</v>
@@ -63122,13 +63113,13 @@
         <v>0</v>
       </c>
       <c r="BL148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM148" t="s">
         <v>180</v>
       </c>
       <c r="BN148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO148" t="s">
         <v>258</v>
@@ -63164,13 +63155,13 @@
         <v>0</v>
       </c>
       <c r="CA148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB148" t="s">
         <v>180</v>
       </c>
       <c r="CC148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD148">
         <v>0</v>
@@ -63774,7 +63765,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -63810,7 +63801,7 @@
         <v>372</v>
       </c>
       <c r="U150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V150" t="s">
         <v>459</v>
@@ -64092,7 +64083,7 @@
         <v>174</v>
       </c>
       <c r="DT150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="DU150">
         <v>0</v>
@@ -64104,7 +64095,7 @@
         <v>258</v>
       </c>
       <c r="DX150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="DY150" t="s">
         <v>258</v>
@@ -64128,7 +64119,7 @@
         <v>0</v>
       </c>
       <c r="EF150" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="EG150">
         <v>0</v>
@@ -64262,7 +64253,7 @@
         <v>461</v>
       </c>
       <c r="AI151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ151">
         <v>0</v>
@@ -64475,7 +64466,7 @@
         <v>0</v>
       </c>
       <c r="DC151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD151">
         <v>0</v>
@@ -65055,7 +65046,7 @@
         <v>215</v>
       </c>
       <c r="Z153" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA153">
         <v>0</v>
@@ -65085,7 +65076,7 @@
         <v>215</v>
       </c>
       <c r="AJ153" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK153">
         <v>0</v>
@@ -65178,7 +65169,7 @@
         <v>215</v>
       </c>
       <c r="BO153" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP153" t="s">
         <v>258</v>
@@ -65244,7 +65235,7 @@
         <v>215</v>
       </c>
       <c r="CL153" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM153">
         <v>0</v>
@@ -65411,7 +65402,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -65447,7 +65438,7 @@
         <v>375</v>
       </c>
       <c r="U154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V154" t="s">
         <v>459</v>
@@ -65465,7 +65456,7 @@
         <v>215</v>
       </c>
       <c r="AA154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB154">
         <v>0</v>
@@ -65495,7 +65486,7 @@
         <v>215</v>
       </c>
       <c r="AK154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL154">
         <v>0</v>
@@ -65588,7 +65579,7 @@
         <v>215</v>
       </c>
       <c r="BP154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ154" t="s">
         <v>258</v>
@@ -65630,7 +65621,7 @@
         <v>215</v>
       </c>
       <c r="CE154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF154">
         <v>0</v>
@@ -65726,7 +65717,7 @@
         <v>258</v>
       </c>
       <c r="DT154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DU154">
         <v>0</v>
@@ -65735,7 +65726,7 @@
         <v>258</v>
       </c>
       <c r="DW154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DX154" t="s">
         <v>258</v>
@@ -65759,7 +65750,7 @@
         <v>0</v>
       </c>
       <c r="EF154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EG154">
         <v>0</v>
@@ -66288,7 +66279,7 @@
         <v>0</v>
       </c>
       <c r="AD156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE156">
         <v>0</v>
@@ -66318,7 +66309,7 @@
         <v>0</v>
       </c>
       <c r="AN156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO156">
         <v>0</v>
@@ -66411,7 +66402,7 @@
         <v>258</v>
       </c>
       <c r="BS156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT156">
         <v>0</v>
@@ -66480,7 +66471,7 @@
         <v>0</v>
       </c>
       <c r="CP156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CQ156">
         <v>0</v>
@@ -66579,7 +66570,7 @@
         <v>0</v>
       </c>
       <c r="EF156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG156">
         <v>0</v>
@@ -66698,7 +66689,7 @@
         <v>0</v>
       </c>
       <c r="AD157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE157">
         <v>0</v>
@@ -66728,7 +66719,7 @@
         <v>0</v>
       </c>
       <c r="AN157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO157">
         <v>0</v>
@@ -66821,7 +66812,7 @@
         <v>258</v>
       </c>
       <c r="BS157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT157">
         <v>0</v>
@@ -66890,7 +66881,7 @@
         <v>0</v>
       </c>
       <c r="CP157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CQ157">
         <v>0</v>
@@ -67506,7 +67497,7 @@
         <v>214</v>
       </c>
       <c r="Z159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA159">
         <v>0</v>
@@ -67527,16 +67518,16 @@
         <v>0</v>
       </c>
       <c r="AG159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH159" t="s">
         <v>258</v>
       </c>
       <c r="AI159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK159">
         <v>0</v>
@@ -67629,7 +67620,7 @@
         <v>214</v>
       </c>
       <c r="BO159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP159" t="s">
         <v>258</v>
@@ -67695,7 +67686,7 @@
         <v>214</v>
       </c>
       <c r="CL159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM159">
         <v>0</v>
@@ -67734,7 +67725,7 @@
         <v>0</v>
       </c>
       <c r="CY159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ159">
         <v>0</v>
@@ -67746,7 +67737,7 @@
         <v>0</v>
       </c>
       <c r="DC159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD159">
         <v>0</v>
@@ -68338,10 +68329,10 @@
         <v>180</v>
       </c>
       <c r="Z161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB161">
         <v>0</v>
@@ -68368,10 +68359,10 @@
         <v>180</v>
       </c>
       <c r="AJ161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL161">
         <v>0</v>
@@ -68461,10 +68452,10 @@
         <v>180</v>
       </c>
       <c r="BO161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ161" t="s">
         <v>258</v>
@@ -68527,10 +68518,10 @@
         <v>180</v>
       </c>
       <c r="CL161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN161">
         <v>0</v>
@@ -68629,7 +68620,7 @@
         <v>258</v>
       </c>
       <c r="EB161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC161">
         <v>0</v>
@@ -68697,7 +68688,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -68733,7 +68724,7 @@
         <v>380</v>
       </c>
       <c r="U162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V162" t="s">
         <v>459</v>
@@ -69015,7 +69006,7 @@
         <v>169</v>
       </c>
       <c r="DT162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DU162">
         <v>0</v>
@@ -69027,7 +69018,7 @@
         <v>258</v>
       </c>
       <c r="DX162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DY162" t="s">
         <v>258</v>
@@ -69039,7 +69030,7 @@
         <v>258</v>
       </c>
       <c r="EB162" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC162">
         <v>0</v>
@@ -69051,7 +69042,7 @@
         <v>0</v>
       </c>
       <c r="EF162" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="EG162">
         <v>0</v>
@@ -69161,7 +69152,7 @@
         <v>0</v>
       </c>
       <c r="AA163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -69191,7 +69182,7 @@
         <v>0</v>
       </c>
       <c r="AK163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL163">
         <v>0</v>
@@ -69284,7 +69275,7 @@
         <v>258</v>
       </c>
       <c r="BP163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ163" t="s">
         <v>258</v>
@@ -69350,7 +69341,7 @@
         <v>0</v>
       </c>
       <c r="CM163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN163">
         <v>0</v>
@@ -69562,7 +69553,7 @@
         <v>168</v>
       </c>
       <c r="Z164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA164">
         <v>0</v>
@@ -69592,7 +69583,7 @@
         <v>168</v>
       </c>
       <c r="AJ164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK164">
         <v>0</v>
@@ -69685,7 +69676,7 @@
         <v>168</v>
       </c>
       <c r="BO164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP164" t="s">
         <v>258</v>
@@ -69751,7 +69742,7 @@
         <v>168</v>
       </c>
       <c r="CL164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM164">
         <v>0</v>
@@ -69969,7 +69960,7 @@
         <v>170</v>
       </c>
       <c r="Z165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA165">
         <v>0</v>
@@ -69999,7 +69990,7 @@
         <v>180</v>
       </c>
       <c r="AJ165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK165">
         <v>0</v>
@@ -70092,7 +70083,7 @@
         <v>170</v>
       </c>
       <c r="BO165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP165" t="s">
         <v>258</v>
@@ -70134,7 +70125,7 @@
         <v>170</v>
       </c>
       <c r="CD165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE165">
         <v>0</v>
@@ -70783,7 +70774,7 @@
         <v>459</v>
       </c>
       <c r="W167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X167" t="s">
         <v>180</v>
@@ -70813,7 +70804,7 @@
         <v>0</v>
       </c>
       <c r="AG167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH167" t="s">
         <v>180</v>
@@ -70906,7 +70897,7 @@
         <v>0</v>
       </c>
       <c r="BL167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM167" t="s">
         <v>180</v>
@@ -70972,7 +70963,7 @@
         <v>0</v>
       </c>
       <c r="CI167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ167" t="s">
         <v>180</v>
@@ -71603,7 +71594,7 @@
         <v>180</v>
       </c>
       <c r="Z169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA169">
         <v>0</v>
@@ -71633,7 +71624,7 @@
         <v>180</v>
       </c>
       <c r="AJ169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK169">
         <v>0</v>
@@ -71726,7 +71717,7 @@
         <v>180</v>
       </c>
       <c r="BO169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP169" t="s">
         <v>258</v>
@@ -71792,7 +71783,7 @@
         <v>180</v>
       </c>
       <c r="CL169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM169">
         <v>0</v>
@@ -72007,7 +71998,7 @@
         <v>214</v>
       </c>
       <c r="Z170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA170">
         <v>0</v>
@@ -72037,7 +72028,7 @@
         <v>214</v>
       </c>
       <c r="AJ170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK170">
         <v>0</v>
@@ -72130,7 +72121,7 @@
         <v>214</v>
       </c>
       <c r="BO170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP170" t="s">
         <v>258</v>
@@ -72196,7 +72187,7 @@
         <v>214</v>
       </c>
       <c r="CL170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM170">
         <v>0</v>
@@ -72363,7 +72354,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -72399,7 +72390,7 @@
         <v>386</v>
       </c>
       <c r="U171" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V171" t="s">
         <v>459</v>
@@ -72678,7 +72669,7 @@
         <v>258</v>
       </c>
       <c r="DT171" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DU171">
         <v>0</v>
@@ -72690,7 +72681,7 @@
         <v>258</v>
       </c>
       <c r="DX171" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DZ171">
         <v>0</v>
@@ -72711,7 +72702,7 @@
         <v>0</v>
       </c>
       <c r="EF171" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="EG171">
         <v>0</v>
@@ -72815,10 +72806,10 @@
         <v>180</v>
       </c>
       <c r="Y172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA172">
         <v>0</v>
@@ -72845,10 +72836,10 @@
         <v>180</v>
       </c>
       <c r="AI172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK172">
         <v>0</v>
@@ -72938,10 +72929,10 @@
         <v>180</v>
       </c>
       <c r="BN172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP172" t="s">
         <v>258</v>
@@ -73004,10 +72995,10 @@
         <v>180</v>
       </c>
       <c r="CK172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM172">
         <v>0</v>
@@ -73587,7 +73578,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -73623,7 +73614,7 @@
         <v>388</v>
       </c>
       <c r="U174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V174" t="s">
         <v>459</v>
@@ -73659,10 +73650,10 @@
         <v>0</v>
       </c>
       <c r="AG174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI174" t="s">
         <v>258</v>
@@ -73866,13 +73857,13 @@
         <v>0</v>
       </c>
       <c r="CY174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ174">
         <v>0</v>
       </c>
       <c r="DA174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB174">
         <v>0</v>
@@ -73917,7 +73908,7 @@
         <v>173</v>
       </c>
       <c r="DT174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DU174">
         <v>0</v>
@@ -73926,7 +73917,7 @@
         <v>258</v>
       </c>
       <c r="DW174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DX174" t="s">
         <v>258</v>
@@ -74048,7 +74039,7 @@
         <v>459</v>
       </c>
       <c r="W175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X175" t="s">
         <v>461</v>
@@ -74171,7 +74162,7 @@
         <v>0</v>
       </c>
       <c r="BL175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM175" t="s">
         <v>461</v>
@@ -74237,7 +74228,7 @@
         <v>0</v>
       </c>
       <c r="CI175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ175" t="s">
         <v>461</v>
@@ -74500,7 +74491,7 @@
         <v>170</v>
       </c>
       <c r="AJ176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK176">
         <v>0</v>
@@ -74713,7 +74704,7 @@
         <v>0</v>
       </c>
       <c r="DE176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DF176">
         <v>0</v>
@@ -74895,7 +74886,7 @@
         <v>214</v>
       </c>
       <c r="AC177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD177">
         <v>0</v>
@@ -74925,7 +74916,7 @@
         <v>214</v>
       </c>
       <c r="AM177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN177">
         <v>0</v>
@@ -75018,7 +75009,7 @@
         <v>214</v>
       </c>
       <c r="BR177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT177">
         <v>0</v>
@@ -75060,7 +75051,7 @@
         <v>214</v>
       </c>
       <c r="CG177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH177">
         <v>0</v>
@@ -75281,7 +75272,7 @@
         <v>460</v>
       </c>
       <c r="W178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X178" t="s">
         <v>214</v>
@@ -75308,7 +75299,7 @@
         <v>0</v>
       </c>
       <c r="AG178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH178" t="s">
         <v>214</v>
@@ -75401,7 +75392,7 @@
         <v>0</v>
       </c>
       <c r="BL178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM178" t="s">
         <v>214</v>
@@ -75467,7 +75458,7 @@
         <v>0</v>
       </c>
       <c r="CI178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ178" t="s">
         <v>214</v>
@@ -75637,7 +75628,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -75673,13 +75664,13 @@
         <v>392</v>
       </c>
       <c r="U179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V179" t="s">
         <v>459</v>
       </c>
       <c r="W179" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X179" t="s">
         <v>461</v>
@@ -75802,7 +75793,7 @@
         <v>0</v>
       </c>
       <c r="BL179" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM179" t="s">
         <v>461</v>
@@ -75868,7 +75859,7 @@
         <v>0</v>
       </c>
       <c r="CI179" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ179" t="s">
         <v>461</v>
@@ -75970,7 +75961,7 @@
         <v>209</v>
       </c>
       <c r="DT179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DU179">
         <v>0</v>
@@ -75982,7 +75973,7 @@
         <v>258</v>
       </c>
       <c r="DX179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DY179" t="s">
         <v>258</v>
@@ -76104,7 +76095,7 @@
         <v>459</v>
       </c>
       <c r="W180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X180" t="s">
         <v>166</v>
@@ -76137,10 +76128,10 @@
         <v>258</v>
       </c>
       <c r="AH180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ180">
         <v>0</v>
@@ -76227,7 +76218,7 @@
         <v>0</v>
       </c>
       <c r="BL180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM180" t="s">
         <v>166</v>
@@ -76293,7 +76284,7 @@
         <v>0</v>
       </c>
       <c r="CI180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ180" t="s">
         <v>166</v>
@@ -76347,13 +76338,13 @@
         <v>0</v>
       </c>
       <c r="DA180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB180">
         <v>0</v>
       </c>
       <c r="DC180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD180">
         <v>0</v>
@@ -76478,7 +76469,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -76514,7 +76505,7 @@
         <v>394</v>
       </c>
       <c r="U181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V181" t="s">
         <v>459</v>
@@ -76532,7 +76523,7 @@
         <v>215</v>
       </c>
       <c r="AA181" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB181">
         <v>0</v>
@@ -76562,7 +76553,7 @@
         <v>215</v>
       </c>
       <c r="AK181" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL181">
         <v>0</v>
@@ -76655,7 +76646,7 @@
         <v>215</v>
       </c>
       <c r="BP181" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ181" t="s">
         <v>258</v>
@@ -76697,7 +76688,7 @@
         <v>215</v>
       </c>
       <c r="CE181" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF181">
         <v>0</v>
@@ -76793,7 +76784,7 @@
         <v>258</v>
       </c>
       <c r="DT181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DU181">
         <v>0</v>
@@ -76802,7 +76793,7 @@
         <v>258</v>
       </c>
       <c r="DW181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DX181" t="s">
         <v>258</v>
@@ -76826,7 +76817,7 @@
         <v>0</v>
       </c>
       <c r="EF181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="EG181">
         <v>0</v>
@@ -77693,7 +77684,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -77729,13 +77720,13 @@
         <v>396</v>
       </c>
       <c r="U184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V184" t="s">
         <v>459</v>
       </c>
       <c r="W184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X184">
         <v>0</v>
@@ -77765,7 +77756,7 @@
         <v>0</v>
       </c>
       <c r="AG184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH184">
         <v>0</v>
@@ -77858,7 +77849,7 @@
         <v>0</v>
       </c>
       <c r="BL184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM184" t="s">
         <v>258</v>
@@ -77924,7 +77915,7 @@
         <v>0</v>
       </c>
       <c r="CI184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ184">
         <v>0</v>
@@ -78008,7 +77999,7 @@
         <v>258</v>
       </c>
       <c r="DT184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DU184">
         <v>0</v>
@@ -78020,7 +78011,7 @@
         <v>258</v>
       </c>
       <c r="DX184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DY184" t="s">
         <v>258</v>
@@ -78044,7 +78035,7 @@
         <v>0</v>
       </c>
       <c r="EF184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG184">
         <v>0</v>
@@ -78588,7 +78579,7 @@
         <v>258</v>
       </c>
       <c r="AI186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ186" t="s">
         <v>258</v>
@@ -78675,7 +78666,7 @@
         <v>0</v>
       </c>
       <c r="BL186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM186" t="s">
         <v>180</v>
@@ -78684,7 +78675,7 @@
         <v>461</v>
       </c>
       <c r="BO186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP186" t="s">
         <v>258</v>
@@ -78741,7 +78732,7 @@
         <v>0</v>
       </c>
       <c r="CI186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ186" t="s">
         <v>180</v>
@@ -78750,7 +78741,7 @@
         <v>461</v>
       </c>
       <c r="CL186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM186">
         <v>0</v>
@@ -78801,7 +78792,7 @@
         <v>0</v>
       </c>
       <c r="DC186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD186">
         <v>0</v>
@@ -78873,7 +78864,7 @@
         <v>0</v>
       </c>
       <c r="EF186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG186" t="s">
         <v>258</v>
@@ -78974,7 +78965,7 @@
         <v>191</v>
       </c>
       <c r="Y187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z187">
         <v>0</v>
@@ -79004,7 +78995,7 @@
         <v>191</v>
       </c>
       <c r="AI187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ187">
         <v>0</v>
@@ -79097,7 +79088,7 @@
         <v>191</v>
       </c>
       <c r="BN187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO187" t="s">
         <v>258</v>
@@ -79139,7 +79130,7 @@
         <v>191</v>
       </c>
       <c r="CC187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CD187">
         <v>0</v>
@@ -79384,7 +79375,7 @@
         <v>0</v>
       </c>
       <c r="AA188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB188">
         <v>0</v>
@@ -79507,7 +79498,7 @@
         <v>258</v>
       </c>
       <c r="BP188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ188" t="s">
         <v>258</v>
@@ -79573,7 +79564,7 @@
         <v>0</v>
       </c>
       <c r="CM188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN188">
         <v>0</v>
@@ -79791,10 +79782,10 @@
         <v>174</v>
       </c>
       <c r="Y189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA189">
         <v>0</v>
@@ -79821,10 +79812,10 @@
         <v>174</v>
       </c>
       <c r="AI189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK189">
         <v>0</v>
@@ -79914,10 +79905,10 @@
         <v>174</v>
       </c>
       <c r="BN189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP189" t="s">
         <v>258</v>
@@ -79980,10 +79971,10 @@
         <v>174</v>
       </c>
       <c r="CK189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM189">
         <v>0</v>
@@ -80198,10 +80189,10 @@
         <v>170</v>
       </c>
       <c r="Z190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB190">
         <v>0</v>
@@ -80228,10 +80219,10 @@
         <v>170</v>
       </c>
       <c r="AJ190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL190">
         <v>0</v>
@@ -80321,10 +80312,10 @@
         <v>170</v>
       </c>
       <c r="BO190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ190" t="s">
         <v>258</v>
@@ -80387,10 +80378,10 @@
         <v>170</v>
       </c>
       <c r="CL190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN190">
         <v>0</v>
@@ -81790,7 +81781,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -81826,16 +81817,16 @@
         <v>405</v>
       </c>
       <c r="U194" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="V194" t="s">
         <v>459</v>
       </c>
       <c r="W194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y194" t="s">
         <v>169</v>
@@ -81862,10 +81853,10 @@
         <v>0</v>
       </c>
       <c r="AG194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AH194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AI194" t="s">
         <v>169</v>
@@ -81955,10 +81946,10 @@
         <v>0</v>
       </c>
       <c r="BL194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BM194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BN194" t="s">
         <v>169</v>
@@ -82021,10 +82012,10 @@
         <v>0</v>
       </c>
       <c r="CI194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CJ194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CK194" t="s">
         <v>169</v>
@@ -82105,7 +82096,7 @@
         <v>258</v>
       </c>
       <c r="DT194" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="DU194">
         <v>0</v>
@@ -82117,7 +82108,7 @@
         <v>258</v>
       </c>
       <c r="DX194" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="DZ194">
         <v>0</v>
@@ -82138,7 +82129,7 @@
         <v>0</v>
       </c>
       <c r="EF194" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="EG194">
         <v>0</v>
@@ -82194,7 +82185,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -82230,7 +82221,7 @@
         <v>405</v>
       </c>
       <c r="U195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="V195" t="s">
         <v>459</v>
@@ -82248,10 +82239,10 @@
         <v>461</v>
       </c>
       <c r="AA195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC195">
         <v>0</v>
@@ -82278,10 +82269,10 @@
         <v>461</v>
       </c>
       <c r="AK195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM195">
         <v>0</v>
@@ -82371,10 +82362,10 @@
         <v>461</v>
       </c>
       <c r="BP195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR195" t="s">
         <v>258</v>
@@ -82437,10 +82428,10 @@
         <v>461</v>
       </c>
       <c r="CM195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO195">
         <v>0</v>
@@ -82515,7 +82506,7 @@
         <v>196</v>
       </c>
       <c r="DT195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DU195">
         <v>0</v>
@@ -82527,7 +82518,7 @@
         <v>258</v>
       </c>
       <c r="DX195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DY195" t="s">
         <v>258</v>
@@ -82604,7 +82595,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -82615,8 +82606,8 @@
       <c r="L196">
         <v>0</v>
       </c>
-      <c r="M196">
-        <v>0</v>
+      <c r="M196" t="s">
+        <v>257</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -82625,7 +82616,7 @@
         <v>0</v>
       </c>
       <c r="P196" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -82640,37 +82631,34 @@
         <v>406</v>
       </c>
       <c r="U196" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="V196" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W196" t="s">
         <v>180</v>
       </c>
       <c r="X196" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y196">
-        <v>0</v>
-      </c>
-      <c r="Z196">
-        <v>0</v>
-      </c>
-      <c r="AA196">
-        <v>0</v>
-      </c>
-      <c r="AB196">
-        <v>0</v>
-      </c>
-      <c r="AC196">
-        <v>0</v>
-      </c>
-      <c r="AD196">
-        <v>0</v>
-      </c>
-      <c r="AE196">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>473</v>
       </c>
       <c r="AF196">
         <v>0</v>
@@ -82679,22 +82667,22 @@
         <v>180</v>
       </c>
       <c r="AH196" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI196">
-        <v>0</v>
-      </c>
-      <c r="AJ196">
-        <v>0</v>
-      </c>
-      <c r="AK196">
-        <v>0</v>
-      </c>
-      <c r="AL196">
-        <v>0</v>
-      </c>
-      <c r="AM196">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>234</v>
       </c>
       <c r="AN196">
         <v>0</v>
@@ -82772,22 +82760,22 @@
         <v>180</v>
       </c>
       <c r="BM196" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="BN196" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="BO196" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="BP196" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="BQ196" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="BR196" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="BT196">
         <v>0</v>
@@ -82804,56 +82792,56 @@
       <c r="BX196" t="s">
         <v>258</v>
       </c>
-      <c r="BY196">
-        <v>0</v>
+      <c r="BY196" t="s">
+        <v>748</v>
       </c>
       <c r="BZ196">
         <v>0</v>
       </c>
       <c r="CA196" t="s">
+        <v>258</v>
+      </c>
+      <c r="CB196" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC196" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD196" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE196" t="s">
+        <v>258</v>
+      </c>
+      <c r="CF196" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG196" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH196">
+        <v>0</v>
+      </c>
+      <c r="CI196" t="s">
         <v>180</v>
       </c>
-      <c r="CB196" t="s">
-        <v>215</v>
-      </c>
-      <c r="CC196">
-        <v>0</v>
-      </c>
-      <c r="CD196">
-        <v>0</v>
-      </c>
-      <c r="CE196">
-        <v>0</v>
-      </c>
-      <c r="CF196">
-        <v>0</v>
-      </c>
-      <c r="CG196">
-        <v>0</v>
-      </c>
-      <c r="CH196">
-        <v>0</v>
-      </c>
-      <c r="CI196">
-        <v>0</v>
-      </c>
-      <c r="CJ196">
-        <v>0</v>
-      </c>
-      <c r="CK196">
-        <v>0</v>
-      </c>
-      <c r="CL196">
-        <v>0</v>
-      </c>
-      <c r="CM196">
-        <v>0</v>
-      </c>
-      <c r="CN196">
-        <v>0</v>
-      </c>
-      <c r="CO196">
-        <v>0</v>
+      <c r="CJ196" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK196" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL196" t="s">
+        <v>214</v>
+      </c>
+      <c r="CM196" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN196" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO196" t="s">
+        <v>234</v>
       </c>
       <c r="CP196">
         <v>0</v>
@@ -82909,17 +82897,11 @@
       <c r="DP196" t="s">
         <v>258</v>
       </c>
-      <c r="DQ196" t="s">
-        <v>258</v>
-      </c>
       <c r="DR196">
         <v>0</v>
       </c>
-      <c r="DS196" t="s">
-        <v>258</v>
-      </c>
       <c r="DT196" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="DU196">
         <v>0</v>
@@ -82928,10 +82910,10 @@
         <v>258</v>
       </c>
       <c r="DW196" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="DX196" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="DY196" t="s">
         <v>258</v>
@@ -82942,8 +82924,8 @@
       <c r="EA196" t="s">
         <v>169</v>
       </c>
-      <c r="EB196" t="s">
-        <v>258</v>
+      <c r="EB196">
+        <v>0</v>
       </c>
       <c r="EC196">
         <v>0</v>
@@ -82955,7 +82937,7 @@
         <v>0</v>
       </c>
       <c r="EF196" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="EG196">
         <v>0</v>
@@ -83059,7 +83041,7 @@
         <v>214</v>
       </c>
       <c r="Y197" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z197">
         <v>0</v>
@@ -83086,10 +83068,10 @@
         <v>258</v>
       </c>
       <c r="AH197" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI197" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ197">
         <v>0</v>
@@ -83182,7 +83164,7 @@
         <v>214</v>
       </c>
       <c r="BN197" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO197" t="s">
         <v>258</v>
@@ -83248,7 +83230,7 @@
         <v>214</v>
       </c>
       <c r="CK197" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL197">
         <v>0</v>
@@ -83296,7 +83278,7 @@
         <v>0</v>
       </c>
       <c r="DA197" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB197">
         <v>0</v>
@@ -83870,7 +83852,7 @@
         <v>459</v>
       </c>
       <c r="W199" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X199" t="s">
         <v>461</v>
@@ -83993,7 +83975,7 @@
         <v>0</v>
       </c>
       <c r="BL199" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM199" t="s">
         <v>461</v>
@@ -84035,7 +84017,7 @@
         <v>0</v>
       </c>
       <c r="CA199" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB199" t="s">
         <v>461</v>
@@ -85100,7 +85082,7 @@
         <v>214</v>
       </c>
       <c r="Z202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA202">
         <v>0</v>
@@ -85124,10 +85106,10 @@
         <v>258</v>
       </c>
       <c r="AH202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ202" t="s">
         <v>258</v>
@@ -85334,13 +85316,13 @@
         <v>0</v>
       </c>
       <c r="DA202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DB202">
         <v>0</v>
       </c>
       <c r="DC202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD202">
         <v>0</v>
@@ -85507,7 +85489,7 @@
         <v>459</v>
       </c>
       <c r="W203" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X203" t="s">
         <v>174</v>
@@ -85630,7 +85612,7 @@
         <v>0</v>
       </c>
       <c r="BL203" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM203" t="s">
         <v>174</v>
@@ -85672,7 +85654,7 @@
         <v>0</v>
       </c>
       <c r="CA203" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB203" t="s">
         <v>174</v>
@@ -85923,7 +85905,7 @@
         <v>459</v>
       </c>
       <c r="W204" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X204" t="s">
         <v>170</v>
@@ -85953,7 +85935,7 @@
         <v>0</v>
       </c>
       <c r="AG204" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH204" t="s">
         <v>170</v>
@@ -86046,7 +86028,7 @@
         <v>0</v>
       </c>
       <c r="BL204" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM204" t="s">
         <v>170</v>
@@ -86088,7 +86070,7 @@
         <v>0</v>
       </c>
       <c r="CA204" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB204" t="s">
         <v>170</v>
@@ -86734,7 +86716,7 @@
         <v>459</v>
       </c>
       <c r="W206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X206" t="s">
         <v>214</v>
@@ -86746,7 +86728,7 @@
         <v>214</v>
       </c>
       <c r="AA206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB206" t="s">
         <v>214</v>
@@ -86764,7 +86746,7 @@
         <v>0</v>
       </c>
       <c r="AG206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH206" t="s">
         <v>214</v>
@@ -86776,7 +86758,7 @@
         <v>214</v>
       </c>
       <c r="AK206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL206" t="s">
         <v>214</v>
@@ -86857,7 +86839,7 @@
         <v>0</v>
       </c>
       <c r="BL206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM206" t="s">
         <v>214</v>
@@ -86869,7 +86851,7 @@
         <v>214</v>
       </c>
       <c r="BP206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ206" t="s">
         <v>214</v>
@@ -86899,7 +86881,7 @@
         <v>0</v>
       </c>
       <c r="CA206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB206" t="s">
         <v>214</v>
@@ -86911,7 +86893,7 @@
         <v>214</v>
       </c>
       <c r="CE206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF206" t="s">
         <v>214</v>
@@ -87138,16 +87120,16 @@
         <v>459</v>
       </c>
       <c r="W207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y207" t="s">
         <v>461</v>
       </c>
       <c r="Z207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA207">
         <v>0</v>
@@ -87261,7 +87243,7 @@
         <v>0</v>
       </c>
       <c r="BL207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM207" t="s">
         <v>180</v>
@@ -87270,7 +87252,7 @@
         <v>461</v>
       </c>
       <c r="BO207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP207" t="s">
         <v>258</v>
@@ -87327,7 +87309,7 @@
         <v>0</v>
       </c>
       <c r="CI207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ207" t="s">
         <v>180</v>
@@ -87336,7 +87318,7 @@
         <v>461</v>
       </c>
       <c r="CL207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM207">
         <v>0</v>
@@ -87512,7 +87494,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -87548,7 +87530,7 @@
         <v>416</v>
       </c>
       <c r="U208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="V208" t="s">
         <v>459</v>
@@ -87566,7 +87548,7 @@
         <v>178</v>
       </c>
       <c r="AA208" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB208">
         <v>0</v>
@@ -87596,7 +87578,7 @@
         <v>178</v>
       </c>
       <c r="AK208" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL208">
         <v>0</v>
@@ -87689,7 +87671,7 @@
         <v>178</v>
       </c>
       <c r="BP208" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ208" t="s">
         <v>258</v>
@@ -87731,7 +87713,7 @@
         <v>178</v>
       </c>
       <c r="CE208" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF208">
         <v>0</v>
@@ -87827,7 +87809,7 @@
         <v>258</v>
       </c>
       <c r="DT208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DU208">
         <v>0</v>
@@ -87836,7 +87818,7 @@
         <v>258</v>
       </c>
       <c r="DW208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DX208" t="s">
         <v>258</v>
@@ -87860,7 +87842,7 @@
         <v>0</v>
       </c>
       <c r="EF208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="EG208">
         <v>0</v>
@@ -87916,7 +87898,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -87952,7 +87934,7 @@
         <v>416</v>
       </c>
       <c r="U209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V209" t="s">
         <v>459</v>
@@ -88231,7 +88213,7 @@
         <v>258</v>
       </c>
       <c r="DT209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="DU209">
         <v>0</v>
@@ -88240,7 +88222,7 @@
         <v>258</v>
       </c>
       <c r="DW209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="DX209" t="s">
         <v>258</v>
@@ -88267,7 +88249,7 @@
         <v>0</v>
       </c>
       <c r="EF209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="EG209">
         <v>0</v>
@@ -88683,7 +88665,7 @@
         <v>0</v>
       </c>
       <c r="EF210" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="EG210">
         <v>0</v>
@@ -88793,7 +88775,7 @@
         <v>0</v>
       </c>
       <c r="AA211" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB211">
         <v>0</v>
@@ -88823,7 +88805,7 @@
         <v>0</v>
       </c>
       <c r="AK211" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL211">
         <v>0</v>
@@ -88916,7 +88898,7 @@
         <v>258</v>
       </c>
       <c r="BP211" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ211" t="s">
         <v>258</v>
@@ -88958,7 +88940,7 @@
         <v>0</v>
       </c>
       <c r="CE211" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF211">
         <v>0</v>
@@ -89188,7 +89170,7 @@
         <v>174</v>
       </c>
       <c r="X212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y212" t="s">
         <v>461</v>
@@ -89218,7 +89200,7 @@
         <v>174</v>
       </c>
       <c r="AH212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI212" t="s">
         <v>461</v>
@@ -89311,7 +89293,7 @@
         <v>174</v>
       </c>
       <c r="BM212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN212" t="s">
         <v>461</v>
@@ -89353,7 +89335,7 @@
         <v>174</v>
       </c>
       <c r="CB212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CC212" t="s">
         <v>461</v>
@@ -89550,7 +89532,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -89586,7 +89568,7 @@
         <v>419</v>
       </c>
       <c r="U213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="V213" t="s">
         <v>459</v>
@@ -89865,7 +89847,7 @@
         <v>258</v>
       </c>
       <c r="DT213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DU213">
         <v>0</v>
@@ -89874,7 +89856,7 @@
         <v>258</v>
       </c>
       <c r="DW213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DX213" t="s">
         <v>258</v>
@@ -89889,7 +89871,7 @@
         <v>258</v>
       </c>
       <c r="EB213" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC213">
         <v>0</v>
@@ -89901,7 +89883,7 @@
         <v>0</v>
       </c>
       <c r="EF213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EG213">
         <v>0</v>
@@ -89951,7 +89933,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -89987,7 +89969,7 @@
         <v>419</v>
       </c>
       <c r="U214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V214" t="s">
         <v>459</v>
@@ -89996,7 +89978,7 @@
         <v>169</v>
       </c>
       <c r="X214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y214" t="s">
         <v>184</v>
@@ -90026,7 +90008,7 @@
         <v>169</v>
       </c>
       <c r="AH214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI214" t="s">
         <v>184</v>
@@ -90119,7 +90101,7 @@
         <v>169</v>
       </c>
       <c r="BM214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BN214" t="s">
         <v>184</v>
@@ -90161,7 +90143,7 @@
         <v>169</v>
       </c>
       <c r="CB214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CC214" t="s">
         <v>184</v>
@@ -90266,7 +90248,7 @@
         <v>258</v>
       </c>
       <c r="DT214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="DU214">
         <v>0</v>
@@ -90275,13 +90257,13 @@
         <v>258</v>
       </c>
       <c r="DW214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="DX214" t="s">
         <v>258</v>
       </c>
       <c r="DY214" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DZ214" t="s">
         <v>258</v>
@@ -90302,7 +90284,7 @@
         <v>0</v>
       </c>
       <c r="EF214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="EG214">
         <v>0</v>
@@ -90412,7 +90394,7 @@
         <v>214</v>
       </c>
       <c r="AA215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB215">
         <v>0</v>
@@ -90442,7 +90424,7 @@
         <v>214</v>
       </c>
       <c r="AK215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL215">
         <v>0</v>
@@ -90535,7 +90517,7 @@
         <v>214</v>
       </c>
       <c r="BP215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ215" t="s">
         <v>258</v>
@@ -90577,7 +90559,7 @@
         <v>214</v>
       </c>
       <c r="CE215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF215">
         <v>0</v>
@@ -90715,10 +90697,10 @@
         <v>0</v>
       </c>
       <c r="EI215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EJ215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EM215">
         <v>0</v>
@@ -91169,7 +91151,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -91205,7 +91187,7 @@
         <v>421</v>
       </c>
       <c r="U217" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V217" t="s">
         <v>459</v>
@@ -91214,7 +91196,7 @@
         <v>184</v>
       </c>
       <c r="X217" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y217" t="s">
         <v>176</v>
@@ -91244,7 +91226,7 @@
         <v>184</v>
       </c>
       <c r="AH217" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI217" t="s">
         <v>176</v>
@@ -91337,7 +91319,7 @@
         <v>184</v>
       </c>
       <c r="BM217" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BN217" t="s">
         <v>176</v>
@@ -91379,7 +91361,7 @@
         <v>184</v>
       </c>
       <c r="CB217" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CC217" t="s">
         <v>176</v>
@@ -91484,7 +91466,7 @@
         <v>258</v>
       </c>
       <c r="DT217" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DU217">
         <v>0</v>
@@ -91493,7 +91475,7 @@
         <v>258</v>
       </c>
       <c r="DW217" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DX217" t="s">
         <v>258</v>
@@ -91508,7 +91490,7 @@
         <v>258</v>
       </c>
       <c r="EB217" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC217">
         <v>0</v>
@@ -91520,7 +91502,7 @@
         <v>0</v>
       </c>
       <c r="EF217" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EG217">
         <v>0</v>
@@ -91529,7 +91511,7 @@
         <v>0</v>
       </c>
       <c r="EL217" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EM217">
         <v>0</v>
@@ -91567,7 +91549,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -91603,7 +91585,7 @@
         <v>421</v>
       </c>
       <c r="U218" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="V218" t="s">
         <v>459</v>
@@ -91627,7 +91609,7 @@
         <v>0</v>
       </c>
       <c r="AC218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD218">
         <v>0</v>
@@ -91657,7 +91639,7 @@
         <v>0</v>
       </c>
       <c r="AM218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN218">
         <v>0</v>
@@ -91750,7 +91732,7 @@
         <v>258</v>
       </c>
       <c r="BR218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT218">
         <v>0</v>
@@ -91816,7 +91798,7 @@
         <v>0</v>
       </c>
       <c r="CO218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CP218">
         <v>0</v>
@@ -91888,7 +91870,7 @@
         <v>479</v>
       </c>
       <c r="DT218" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DU218">
         <v>0</v>
@@ -91900,7 +91882,7 @@
         <v>258</v>
       </c>
       <c r="DX218" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DY218" t="s">
         <v>258</v>
@@ -91912,7 +91894,7 @@
         <v>214</v>
       </c>
       <c r="EB218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC218">
         <v>0</v>
@@ -92022,10 +92004,10 @@
         <v>459</v>
       </c>
       <c r="W219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y219" t="s">
         <v>214</v>
@@ -92034,10 +92016,10 @@
         <v>0</v>
       </c>
       <c r="AA219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC219">
         <v>0</v>
@@ -92052,10 +92034,10 @@
         <v>0</v>
       </c>
       <c r="AG219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI219" t="s">
         <v>214</v>
@@ -92064,10 +92046,10 @@
         <v>0</v>
       </c>
       <c r="AK219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM219">
         <v>0</v>
@@ -92145,10 +92127,10 @@
         <v>0</v>
       </c>
       <c r="BL219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN219" t="s">
         <v>214</v>
@@ -92157,10 +92139,10 @@
         <v>258</v>
       </c>
       <c r="BP219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR219" t="s">
         <v>258</v>
@@ -92187,10 +92169,10 @@
         <v>0</v>
       </c>
       <c r="CA219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CC219" t="s">
         <v>214</v>
@@ -92199,10 +92181,10 @@
         <v>0</v>
       </c>
       <c r="CE219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG219">
         <v>0</v>
@@ -92435,7 +92417,7 @@
         <v>461</v>
       </c>
       <c r="Z220" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA220">
         <v>0</v>
@@ -92465,7 +92447,7 @@
         <v>461</v>
       </c>
       <c r="AJ220" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK220">
         <v>0</v>
@@ -92558,7 +92540,7 @@
         <v>461</v>
       </c>
       <c r="BO220" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP220" t="s">
         <v>258</v>
@@ -92600,7 +92582,7 @@
         <v>461</v>
       </c>
       <c r="CD220" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE220">
         <v>0</v>
@@ -92839,13 +92821,13 @@
         <v>215</v>
       </c>
       <c r="Y221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB221">
         <v>0</v>
@@ -92869,13 +92851,13 @@
         <v>215</v>
       </c>
       <c r="AI221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL221">
         <v>0</v>
@@ -92962,13 +92944,13 @@
         <v>215</v>
       </c>
       <c r="BN221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ221" t="s">
         <v>258</v>
@@ -93028,13 +93010,13 @@
         <v>215</v>
       </c>
       <c r="CK221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN221">
         <v>0</v>
@@ -93246,7 +93228,7 @@
         <v>214</v>
       </c>
       <c r="Z222" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA222" t="s">
         <v>461</v>
@@ -93276,7 +93258,7 @@
         <v>214</v>
       </c>
       <c r="AJ222" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK222" t="s">
         <v>461</v>
@@ -93369,7 +93351,7 @@
         <v>214</v>
       </c>
       <c r="BO222" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP222" t="s">
         <v>461</v>
@@ -93435,7 +93417,7 @@
         <v>214</v>
       </c>
       <c r="CL222" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM222" t="s">
         <v>461</v>
@@ -94464,7 +94446,7 @@
         <v>459</v>
       </c>
       <c r="W225" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X225" t="s">
         <v>215</v>
@@ -94494,7 +94476,7 @@
         <v>0</v>
       </c>
       <c r="AG225" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH225" t="s">
         <v>215</v>
@@ -94587,7 +94569,7 @@
         <v>0</v>
       </c>
       <c r="BL225" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM225" t="s">
         <v>215</v>
@@ -94629,7 +94611,7 @@
         <v>0</v>
       </c>
       <c r="CA225" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB225" t="s">
         <v>215</v>
@@ -94883,10 +94865,10 @@
         <v>461</v>
       </c>
       <c r="AB226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE226" t="s">
         <v>473</v>
@@ -94910,10 +94892,10 @@
         <v>461</v>
       </c>
       <c r="AL226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN226">
         <v>0</v>
@@ -95003,10 +94985,10 @@
         <v>461</v>
       </c>
       <c r="BQ226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT226">
         <v>0</v>
@@ -95069,10 +95051,10 @@
         <v>461</v>
       </c>
       <c r="CN226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CP226">
         <v>0</v>
@@ -95269,7 +95251,7 @@
         <v>214</v>
       </c>
       <c r="X227" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y227" t="s">
         <v>214</v>
@@ -95299,7 +95281,7 @@
         <v>214</v>
       </c>
       <c r="AH227" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI227" t="s">
         <v>214</v>
@@ -95392,7 +95374,7 @@
         <v>214</v>
       </c>
       <c r="BM227" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN227" t="s">
         <v>214</v>
@@ -95434,7 +95416,7 @@
         <v>214</v>
       </c>
       <c r="CB227" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CC227" t="s">
         <v>214</v>
@@ -95664,7 +95646,7 @@
         <v>460</v>
       </c>
       <c r="W228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X228" t="s">
         <v>170</v>
@@ -95682,7 +95664,7 @@
         <v>214</v>
       </c>
       <c r="AC228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE228" t="s">
         <v>473</v>
@@ -95691,7 +95673,7 @@
         <v>0</v>
       </c>
       <c r="AG228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH228" t="s">
         <v>170</v>
@@ -95709,7 +95691,7 @@
         <v>214</v>
       </c>
       <c r="AM228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN228">
         <v>0</v>
@@ -95784,7 +95766,7 @@
         <v>0</v>
       </c>
       <c r="BL228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM228" t="s">
         <v>170</v>
@@ -95802,7 +95784,7 @@
         <v>214</v>
       </c>
       <c r="BR228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT228">
         <v>0</v>
@@ -95850,7 +95832,7 @@
         <v>0</v>
       </c>
       <c r="CI228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ228" t="s">
         <v>170</v>
@@ -95868,7 +95850,7 @@
         <v>214</v>
       </c>
       <c r="CO228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CP228">
         <v>0</v>
@@ -96020,7 +96002,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -96056,7 +96038,7 @@
         <v>428</v>
       </c>
       <c r="U229" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V229" t="s">
         <v>459</v>
@@ -96095,7 +96077,7 @@
         <v>207</v>
       </c>
       <c r="AH229" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AI229" t="s">
         <v>197</v>
@@ -96251,7 +96233,7 @@
         <v>0</v>
       </c>
       <c r="CI229" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CJ229" t="s">
         <v>188</v>
@@ -96278,7 +96260,7 @@
         <v>214</v>
       </c>
       <c r="CR229" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CS229">
         <v>0</v>
@@ -96305,7 +96287,7 @@
         <v>258</v>
       </c>
       <c r="DA229" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DB229" t="s">
         <v>258</v>
@@ -96341,13 +96323,13 @@
         <v>258</v>
       </c>
       <c r="DR229" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DS229" t="s">
         <v>211</v>
       </c>
       <c r="DT229" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="DU229">
         <v>0</v>
@@ -96365,7 +96347,7 @@
         <v>214</v>
       </c>
       <c r="DZ229" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EA229" t="s">
         <v>214</v>
@@ -96389,7 +96371,7 @@
         <v>214</v>
       </c>
       <c r="EH229" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EI229">
         <v>0</v>
@@ -96439,7 +96421,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -96475,7 +96457,7 @@
         <v>428</v>
       </c>
       <c r="U230" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V230" t="s">
         <v>459</v>
@@ -96484,7 +96466,7 @@
         <v>196</v>
       </c>
       <c r="X230" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y230" t="s">
         <v>203</v>
@@ -96520,7 +96502,7 @@
         <v>465</v>
       </c>
       <c r="AJ230" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -96607,7 +96589,7 @@
         <v>196</v>
       </c>
       <c r="BM230" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BN230" t="s">
         <v>203</v>
@@ -96673,7 +96655,7 @@
         <v>196</v>
       </c>
       <c r="CJ230" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CK230" t="s">
         <v>203</v>
@@ -96697,7 +96679,7 @@
         <v>0</v>
       </c>
       <c r="CR230" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CS230">
         <v>0</v>
@@ -96736,7 +96718,7 @@
         <v>0</v>
       </c>
       <c r="DE230" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DF230">
         <v>0</v>
@@ -96766,19 +96748,19 @@
         <v>190</v>
       </c>
       <c r="DT230" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DU230">
         <v>0</v>
       </c>
       <c r="DV230" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DW230" t="s">
         <v>258</v>
       </c>
       <c r="DX230" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="DY230" t="s">
         <v>258</v>
@@ -96855,7 +96837,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -96930,10 +96912,10 @@
         <v>184</v>
       </c>
       <c r="AH231" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI231" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="AJ231" t="s">
         <v>166</v>
@@ -97020,7 +97002,7 @@
         <v>0</v>
       </c>
       <c r="BL231" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BM231" t="s">
         <v>206</v>
@@ -97086,7 +97068,7 @@
         <v>0</v>
       </c>
       <c r="CI231" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CJ231" t="s">
         <v>206</v>
@@ -97140,13 +97122,13 @@
         <v>0</v>
       </c>
       <c r="DA231" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DB231">
         <v>0</v>
       </c>
       <c r="DC231" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="DD231">
         <v>0</v>
@@ -97182,7 +97164,7 @@
         <v>751</v>
       </c>
       <c r="DT231" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="DU231">
         <v>0</v>
@@ -97194,7 +97176,7 @@
         <v>258</v>
       </c>
       <c r="DX231" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="DY231" t="s">
         <v>169</v>
@@ -97262,7 +97244,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -97580,10 +97562,10 @@
         <v>0</v>
       </c>
       <c r="DS232" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DT232" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="DU232">
         <v>0</v>
@@ -97595,7 +97577,7 @@
         <v>258</v>
       </c>
       <c r="DX232" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="DY232" t="s">
         <v>258</v>
@@ -97720,7 +97702,7 @@
         <v>214</v>
       </c>
       <c r="Y233" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z233">
         <v>0</v>
@@ -97750,7 +97732,7 @@
         <v>214</v>
       </c>
       <c r="AI233" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ233">
         <v>0</v>
@@ -97843,7 +97825,7 @@
         <v>214</v>
       </c>
       <c r="BN233" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO233" t="s">
         <v>258</v>
@@ -97909,7 +97891,7 @@
         <v>214</v>
       </c>
       <c r="CK233" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL233">
         <v>0</v>
@@ -98130,7 +98112,7 @@
         <v>214</v>
       </c>
       <c r="AA234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB234">
         <v>0</v>
@@ -98160,7 +98142,7 @@
         <v>214</v>
       </c>
       <c r="AK234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL234">
         <v>0</v>
@@ -98253,7 +98235,7 @@
         <v>214</v>
       </c>
       <c r="BP234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ234" t="s">
         <v>258</v>
@@ -98319,7 +98301,7 @@
         <v>214</v>
       </c>
       <c r="CM234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN234">
         <v>0</v>
@@ -98537,7 +98519,7 @@
         <v>180</v>
       </c>
       <c r="AB235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC235">
         <v>0</v>
@@ -98567,7 +98549,7 @@
         <v>180</v>
       </c>
       <c r="AL235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM235">
         <v>0</v>
@@ -98660,7 +98642,7 @@
         <v>180</v>
       </c>
       <c r="BQ235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR235" t="s">
         <v>258</v>
@@ -98702,7 +98684,7 @@
         <v>180</v>
       </c>
       <c r="CF235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG235">
         <v>0</v>
@@ -100524,7 +100506,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -100560,13 +100542,13 @@
         <v>434</v>
       </c>
       <c r="U240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V240" t="s">
         <v>459</v>
       </c>
       <c r="W240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X240">
         <v>0</v>
@@ -100596,7 +100578,7 @@
         <v>0</v>
       </c>
       <c r="AG240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AH240">
         <v>0</v>
@@ -100689,7 +100671,7 @@
         <v>0</v>
       </c>
       <c r="BL240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BM240" t="s">
         <v>258</v>
@@ -100731,7 +100713,7 @@
         <v>0</v>
       </c>
       <c r="CA240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CB240">
         <v>0</v>
@@ -100839,7 +100821,7 @@
         <v>258</v>
       </c>
       <c r="DT240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DU240">
         <v>0</v>
@@ -100848,7 +100830,7 @@
         <v>258</v>
       </c>
       <c r="DW240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DX240" t="s">
         <v>258</v>
@@ -100872,7 +100854,7 @@
         <v>0</v>
       </c>
       <c r="EF240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="EG240">
         <v>0</v>
@@ -100979,7 +100961,7 @@
         <v>461</v>
       </c>
       <c r="Z241" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA241">
         <v>0</v>
@@ -101102,7 +101084,7 @@
         <v>461</v>
       </c>
       <c r="BO241" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP241" t="s">
         <v>258</v>
@@ -101168,7 +101150,7 @@
         <v>461</v>
       </c>
       <c r="CL241" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM241">
         <v>0</v>
@@ -101347,7 +101329,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -101383,7 +101365,7 @@
         <v>436</v>
       </c>
       <c r="U242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V242" t="s">
         <v>459</v>
@@ -101410,7 +101392,7 @@
         <v>0</v>
       </c>
       <c r="AD242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE242">
         <v>0</v>
@@ -101440,7 +101422,7 @@
         <v>0</v>
       </c>
       <c r="AN242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO242">
         <v>0</v>
@@ -101533,7 +101515,7 @@
         <v>258</v>
       </c>
       <c r="BS242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT242">
         <v>0</v>
@@ -101602,7 +101584,7 @@
         <v>0</v>
       </c>
       <c r="CP242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CQ242">
         <v>0</v>
@@ -101665,7 +101647,7 @@
         <v>258</v>
       </c>
       <c r="DT242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DU242">
         <v>0</v>
@@ -101677,7 +101659,7 @@
         <v>258</v>
       </c>
       <c r="DX242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DZ242">
         <v>0</v>
@@ -101698,7 +101680,7 @@
         <v>0</v>
       </c>
       <c r="EF242" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG242">
         <v>0</v>
@@ -101754,7 +101736,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -101790,7 +101772,7 @@
         <v>436</v>
       </c>
       <c r="U243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V243" t="s">
         <v>459</v>
@@ -101817,7 +101799,7 @@
         <v>0</v>
       </c>
       <c r="AD243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE243">
         <v>0</v>
@@ -101847,7 +101829,7 @@
         <v>0</v>
       </c>
       <c r="AN243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO243">
         <v>0</v>
@@ -101940,7 +101922,7 @@
         <v>258</v>
       </c>
       <c r="BS243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT243">
         <v>0</v>
@@ -102009,7 +101991,7 @@
         <v>0</v>
       </c>
       <c r="CP243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CQ243">
         <v>0</v>
@@ -102072,7 +102054,7 @@
         <v>258</v>
       </c>
       <c r="DT243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DU243">
         <v>0</v>
@@ -102084,7 +102066,7 @@
         <v>258</v>
       </c>
       <c r="DX243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DY243" t="s">
         <v>258</v>
@@ -102108,7 +102090,7 @@
         <v>0</v>
       </c>
       <c r="EF243" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG243">
         <v>0</v>
@@ -102212,7 +102194,7 @@
         <v>180</v>
       </c>
       <c r="Y244" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z244">
         <v>0</v>
@@ -102335,7 +102317,7 @@
         <v>180</v>
       </c>
       <c r="BN244" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO244" t="s">
         <v>258</v>
@@ -102401,7 +102383,7 @@
         <v>180</v>
       </c>
       <c r="CK244" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL244">
         <v>0</v>
@@ -102622,7 +102604,7 @@
         <v>459</v>
       </c>
       <c r="W245" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X245" t="s">
         <v>461</v>
@@ -102631,7 +102613,7 @@
         <v>180</v>
       </c>
       <c r="Z245" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA245">
         <v>0</v>
@@ -102745,7 +102727,7 @@
         <v>0</v>
       </c>
       <c r="BL245" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM245" t="s">
         <v>461</v>
@@ -102754,7 +102736,7 @@
         <v>180</v>
       </c>
       <c r="BO245" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP245" t="s">
         <v>258</v>
@@ -102811,7 +102793,7 @@
         <v>0</v>
       </c>
       <c r="CI245" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ245" t="s">
         <v>461</v>
@@ -102820,7 +102802,7 @@
         <v>180</v>
       </c>
       <c r="CL245" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM245">
         <v>0</v>
@@ -103047,7 +103029,7 @@
         <v>180</v>
       </c>
       <c r="Z246" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA246">
         <v>0</v>
@@ -103170,7 +103152,7 @@
         <v>180</v>
       </c>
       <c r="BO246" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP246" t="s">
         <v>258</v>
@@ -103236,7 +103218,7 @@
         <v>180</v>
       </c>
       <c r="CL246" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM246">
         <v>0</v>
@@ -103457,13 +103439,13 @@
         <v>459</v>
       </c>
       <c r="W247" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X247" t="s">
         <v>461</v>
       </c>
       <c r="Y247" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z247">
         <v>0</v>
@@ -103580,13 +103562,13 @@
         <v>0</v>
       </c>
       <c r="BL247" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM247" t="s">
         <v>461</v>
       </c>
       <c r="BN247" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO247" t="s">
         <v>258</v>
@@ -103646,13 +103628,13 @@
         <v>0</v>
       </c>
       <c r="CI247" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ247" t="s">
         <v>461</v>
       </c>
       <c r="CK247" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CL247">
         <v>0</v>
@@ -104185,7 +104167,7 @@
         <v>0</v>
       </c>
       <c r="EF248" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="EG248">
         <v>0</v>
@@ -104232,7 +104214,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -104268,7 +104250,7 @@
         <v>441</v>
       </c>
       <c r="U249" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V249" t="s">
         <v>459</v>
@@ -104286,10 +104268,10 @@
         <v>461</v>
       </c>
       <c r="AA249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC249">
         <v>0</v>
@@ -104304,7 +104286,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH249" t="s">
         <v>191</v>
@@ -104316,10 +104298,10 @@
         <v>461</v>
       </c>
       <c r="AK249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM249">
         <v>0</v>
@@ -104409,10 +104391,10 @@
         <v>461</v>
       </c>
       <c r="BP249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR249" t="s">
         <v>258</v>
@@ -104475,10 +104457,10 @@
         <v>461</v>
       </c>
       <c r="CM249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO249">
         <v>0</v>
@@ -104511,7 +104493,7 @@
         <v>0</v>
       </c>
       <c r="CY249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CZ249">
         <v>0</v>
@@ -104553,7 +104535,7 @@
         <v>169</v>
       </c>
       <c r="DT249" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DU249">
         <v>0</v>
@@ -104565,7 +104547,7 @@
         <v>258</v>
       </c>
       <c r="DX249" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DY249" t="s">
         <v>258</v>
@@ -104657,10 +104639,10 @@
         <v>0</v>
       </c>
       <c r="N250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P250" t="s">
         <v>258</v>
@@ -104687,7 +104669,7 @@
         <v>215</v>
       </c>
       <c r="X250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y250">
         <v>0</v>
@@ -104717,7 +104699,7 @@
         <v>258</v>
       </c>
       <c r="AH250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI250">
         <v>0</v>
@@ -104810,7 +104792,7 @@
         <v>215</v>
       </c>
       <c r="BM250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN250" t="s">
         <v>258</v>
@@ -104876,7 +104858,7 @@
         <v>215</v>
       </c>
       <c r="CJ250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK250">
         <v>0</v>
@@ -104948,7 +104930,7 @@
         <v>0</v>
       </c>
       <c r="DP250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DQ250" t="s">
         <v>258</v>
@@ -104978,7 +104960,7 @@
         <v>0</v>
       </c>
       <c r="EA250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EB250" t="s">
         <v>258</v>
@@ -104993,7 +104975,7 @@
         <v>0</v>
       </c>
       <c r="EF250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EG250">
         <v>0</v>
@@ -105002,7 +104984,7 @@
         <v>0</v>
       </c>
       <c r="EK250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EM250" t="s">
         <v>764</v>
@@ -105486,7 +105468,7 @@
         <v>459</v>
       </c>
       <c r="W252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X252" t="s">
         <v>169</v>
@@ -105495,13 +105477,13 @@
         <v>215</v>
       </c>
       <c r="Z252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA252">
         <v>0</v>
       </c>
       <c r="AB252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC252">
         <v>0</v>
@@ -105516,7 +105498,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH252" t="s">
         <v>169</v>
@@ -105525,13 +105507,13 @@
         <v>215</v>
       </c>
       <c r="AJ252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK252">
         <v>0</v>
       </c>
       <c r="AL252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM252">
         <v>0</v>
@@ -105609,7 +105591,7 @@
         <v>0</v>
       </c>
       <c r="BL252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM252" t="s">
         <v>169</v>
@@ -105618,13 +105600,13 @@
         <v>215</v>
       </c>
       <c r="BO252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP252" t="s">
         <v>258</v>
       </c>
       <c r="BQ252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR252" t="s">
         <v>258</v>
@@ -105651,7 +105633,7 @@
         <v>0</v>
       </c>
       <c r="CA252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB252" t="s">
         <v>169</v>
@@ -105660,13 +105642,13 @@
         <v>215</v>
       </c>
       <c r="CD252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CE252">
         <v>0</v>
       </c>
       <c r="CF252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG252">
         <v>0</v>
@@ -106297,7 +106279,7 @@
         <v>459</v>
       </c>
       <c r="W254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X254" t="s">
         <v>461</v>
@@ -106309,7 +106291,7 @@
         <v>170</v>
       </c>
       <c r="AA254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB254">
         <v>0</v>
@@ -106327,7 +106309,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH254" t="s">
         <v>461</v>
@@ -106339,7 +106321,7 @@
         <v>170</v>
       </c>
       <c r="AK254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL254">
         <v>0</v>
@@ -106420,7 +106402,7 @@
         <v>0</v>
       </c>
       <c r="BL254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM254" t="s">
         <v>461</v>
@@ -106432,7 +106414,7 @@
         <v>170</v>
       </c>
       <c r="BP254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ254" t="s">
         <v>258</v>
@@ -106486,7 +106468,7 @@
         <v>0</v>
       </c>
       <c r="CI254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ254" t="s">
         <v>461</v>
@@ -106498,7 +106480,7 @@
         <v>170</v>
       </c>
       <c r="CM254" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN254">
         <v>0</v>
@@ -106719,7 +106701,7 @@
         <v>0</v>
       </c>
       <c r="AC255" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD255">
         <v>0</v>
@@ -106749,7 +106731,7 @@
         <v>0</v>
       </c>
       <c r="AM255" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN255">
         <v>0</v>
@@ -106842,7 +106824,7 @@
         <v>258</v>
       </c>
       <c r="BR255" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT255">
         <v>0</v>
@@ -106908,7 +106890,7 @@
         <v>0</v>
       </c>
       <c r="CO255" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CP255">
         <v>0</v>
@@ -107108,10 +107090,10 @@
         <v>459</v>
       </c>
       <c r="W256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y256" t="s">
         <v>215</v>
@@ -107123,7 +107105,7 @@
         <v>0</v>
       </c>
       <c r="AB256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC256">
         <v>0</v>
@@ -107138,10 +107120,10 @@
         <v>0</v>
       </c>
       <c r="AG256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI256" t="s">
         <v>215</v>
@@ -107153,7 +107135,7 @@
         <v>0</v>
       </c>
       <c r="AL256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM256">
         <v>0</v>
@@ -107231,10 +107213,10 @@
         <v>0</v>
       </c>
       <c r="BL256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BN256" t="s">
         <v>215</v>
@@ -107246,7 +107228,7 @@
         <v>258</v>
       </c>
       <c r="BQ256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR256" t="s">
         <v>258</v>
@@ -107264,7 +107246,7 @@
         <v>146</v>
       </c>
       <c r="BX256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BY256">
         <v>0</v>
@@ -107273,10 +107255,10 @@
         <v>483</v>
       </c>
       <c r="CA256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CC256" t="s">
         <v>215</v>
@@ -107288,7 +107270,7 @@
         <v>0</v>
       </c>
       <c r="CF256" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG256">
         <v>0</v>
@@ -107473,7 +107455,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -107509,13 +107491,13 @@
         <v>445</v>
       </c>
       <c r="U257" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V257" t="s">
         <v>459</v>
       </c>
       <c r="W257" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X257" t="s">
         <v>189</v>
@@ -107638,7 +107620,7 @@
         <v>0</v>
       </c>
       <c r="BL257" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BM257" t="s">
         <v>189</v>
@@ -107704,7 +107686,7 @@
         <v>0</v>
       </c>
       <c r="CI257" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CJ257" t="s">
         <v>189</v>
@@ -107791,7 +107773,7 @@
         <v>181</v>
       </c>
       <c r="DT257" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DU257">
         <v>0</v>
@@ -107803,7 +107785,7 @@
         <v>258</v>
       </c>
       <c r="DX257" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DY257" t="s">
         <v>258</v>
@@ -107925,7 +107907,7 @@
         <v>459</v>
       </c>
       <c r="W258" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X258" t="s">
         <v>214</v>
@@ -107934,7 +107916,7 @@
         <v>214</v>
       </c>
       <c r="Z258" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA258">
         <v>0</v>
@@ -108048,7 +108030,7 @@
         <v>0</v>
       </c>
       <c r="BL258" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM258" t="s">
         <v>214</v>
@@ -108057,7 +108039,7 @@
         <v>214</v>
       </c>
       <c r="BO258" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BP258" t="s">
         <v>258</v>
@@ -108114,7 +108096,7 @@
         <v>0</v>
       </c>
       <c r="CI258" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CJ258" t="s">
         <v>214</v>
@@ -108123,7 +108105,7 @@
         <v>214</v>
       </c>
       <c r="CL258" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CM258">
         <v>0</v>
@@ -108302,7 +108284,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -108338,7 +108320,7 @@
         <v>447</v>
       </c>
       <c r="U259" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="V259" t="s">
         <v>459</v>
@@ -108356,7 +108338,7 @@
         <v>166</v>
       </c>
       <c r="AA259" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB259">
         <v>0</v>
@@ -108386,7 +108368,7 @@
         <v>166</v>
       </c>
       <c r="AK259" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL259">
         <v>0</v>
@@ -108479,7 +108461,7 @@
         <v>166</v>
       </c>
       <c r="BP259" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ259" t="s">
         <v>258</v>
@@ -108521,7 +108503,7 @@
         <v>166</v>
       </c>
       <c r="CE259" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF259">
         <v>0</v>
@@ -108617,7 +108599,7 @@
         <v>258</v>
       </c>
       <c r="DT259" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="DU259">
         <v>0</v>
@@ -108626,7 +108608,7 @@
         <v>258</v>
       </c>
       <c r="DW259" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="DX259" t="s">
         <v>258</v>
@@ -108650,7 +108632,7 @@
         <v>0</v>
       </c>
       <c r="EF259" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="EG259">
         <v>0</v>
@@ -108748,7 +108730,7 @@
         <v>459</v>
       </c>
       <c r="W260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X260" t="s">
         <v>191</v>
@@ -108763,10 +108745,10 @@
         <v>461</v>
       </c>
       <c r="AB260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD260">
         <v>0</v>
@@ -108778,7 +108760,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH260" t="s">
         <v>191</v>
@@ -108793,10 +108775,10 @@
         <v>461</v>
       </c>
       <c r="AL260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN260">
         <v>0</v>
@@ -108871,7 +108853,7 @@
         <v>0</v>
       </c>
       <c r="BL260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM260" t="s">
         <v>191</v>
@@ -108886,10 +108868,10 @@
         <v>461</v>
       </c>
       <c r="BQ260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BR260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT260">
         <v>0</v>
@@ -108913,7 +108895,7 @@
         <v>0</v>
       </c>
       <c r="CA260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB260" t="s">
         <v>191</v>
@@ -108928,10 +108910,10 @@
         <v>461</v>
       </c>
       <c r="CF260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH260">
         <v>0</v>
@@ -109158,7 +109140,7 @@
         <v>467</v>
       </c>
       <c r="X261" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y261" t="s">
         <v>472</v>
@@ -109281,7 +109263,7 @@
         <v>467</v>
       </c>
       <c r="BM261" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BN261" t="s">
         <v>472</v>
@@ -109344,10 +109326,10 @@
         <v>0</v>
       </c>
       <c r="CI261" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CJ261" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CK261" t="s">
         <v>472</v>
@@ -109371,13 +109353,13 @@
         <v>191</v>
       </c>
       <c r="CR261" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CS261">
         <v>0</v>
       </c>
       <c r="CT261" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CU261">
         <v>0</v>
@@ -109452,7 +109434,7 @@
         <v>258</v>
       </c>
       <c r="DX261" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DY261" t="s">
         <v>174</v>
@@ -109485,7 +109467,7 @@
         <v>0</v>
       </c>
       <c r="EI261" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EL261" t="s">
         <v>215</v>
@@ -109571,10 +109553,10 @@
         <v>468</v>
       </c>
       <c r="X262" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y262" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z262" t="s">
         <v>166</v>
@@ -109691,13 +109673,13 @@
         <v>0</v>
       </c>
       <c r="BL262" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM262" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN262" t="s">
         <v>222</v>
-      </c>
-      <c r="BM262" t="s">
-        <v>222</v>
-      </c>
-      <c r="BN262" t="s">
-        <v>221</v>
       </c>
       <c r="BO262" t="s">
         <v>166</v>
@@ -109760,10 +109742,10 @@
         <v>472</v>
       </c>
       <c r="CJ262" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CK262" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CL262" t="s">
         <v>166</v>
@@ -109787,7 +109769,7 @@
         <v>214</v>
       </c>
       <c r="CS262" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CT262">
         <v>0</v>
@@ -109865,7 +109847,7 @@
         <v>258</v>
       </c>
       <c r="DX262" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="DY262" t="s">
         <v>258</v>
@@ -109889,7 +109871,7 @@
         <v>0</v>
       </c>
       <c r="EF262" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="EG262">
         <v>0</v>
@@ -110397,7 +110379,7 @@
         <v>459</v>
       </c>
       <c r="W264" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X264" t="s">
         <v>168</v>
@@ -110409,7 +110391,7 @@
         <v>0</v>
       </c>
       <c r="AA264" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB264">
         <v>0</v>
@@ -110520,7 +110502,7 @@
         <v>0</v>
       </c>
       <c r="BL264" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BM264" t="s">
         <v>168</v>
@@ -110532,7 +110514,7 @@
         <v>258</v>
       </c>
       <c r="BP264" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BQ264" t="s">
         <v>258</v>
@@ -110562,7 +110544,7 @@
         <v>0</v>
       </c>
       <c r="CA264" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CB264" t="s">
         <v>168</v>
@@ -110574,7 +110556,7 @@
         <v>0</v>
       </c>
       <c r="CE264" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF264">
         <v>0</v>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12074" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12092" uniqueCount="767">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1721,7 +1721,7 @@
     <t>2025-06-10T10:06:45.399857Z</t>
   </si>
   <si>
-    <t>2025-06-11T13:03:17.694202Z</t>
+    <t>2025-06-12T12:48:01.280653Z</t>
   </si>
   <si>
     <t>2025-05-29T13:26:46.459924Z</t>
@@ -37061,7 +37061,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -37072,8 +37072,8 @@
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85">
-        <v>0</v>
+      <c r="M85" t="s">
+        <v>257</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -37082,7 +37082,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -37097,37 +37097,34 @@
         <v>321</v>
       </c>
       <c r="U85" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="V85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W85" t="s">
         <v>461</v>
       </c>
       <c r="X85" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="Y85" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z85" t="s">
         <v>214</v>
       </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
+      <c r="AA85" t="s">
+        <v>214</v>
       </c>
       <c r="AB85" t="s">
         <v>214</v>
       </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-      <c r="AE85">
-        <v>0</v>
+      <c r="AC85" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>473</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -37136,22 +37133,22 @@
         <v>461</v>
       </c>
       <c r="AH85" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="AI85" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ85" t="s">
         <v>214</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
-      <c r="AK85">
-        <v>0</v>
+      <c r="AK85" t="s">
+        <v>234</v>
       </c>
       <c r="AL85" t="s">
         <v>214</v>
       </c>
-      <c r="AM85">
-        <v>0</v>
+      <c r="AM85" t="s">
+        <v>234</v>
       </c>
       <c r="AN85">
         <v>0</v>
@@ -37192,8 +37189,8 @@
       <c r="AZ85">
         <v>0</v>
       </c>
-      <c r="BA85">
-        <v>0</v>
+      <c r="BA85" t="s">
+        <v>258</v>
       </c>
       <c r="BB85">
         <v>0</v>
@@ -37229,22 +37226,22 @@
         <v>461</v>
       </c>
       <c r="BM85" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="BN85" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO85" t="s">
         <v>214</v>
       </c>
-      <c r="BO85" t="s">
-        <v>258</v>
-      </c>
       <c r="BP85" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="BQ85" t="s">
         <v>214</v>
       </c>
       <c r="BR85" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="BT85">
         <v>0</v>
@@ -37259,58 +37256,58 @@
         <v>146</v>
       </c>
       <c r="BX85" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY85">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="BY85" t="s">
+        <v>748</v>
       </c>
       <c r="BZ85">
         <v>0</v>
       </c>
       <c r="CA85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CB85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CF85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH85">
+        <v>0</v>
+      </c>
+      <c r="CI85" t="s">
         <v>461</v>
       </c>
-      <c r="CB85" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC85" t="s">
+      <c r="CJ85" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK85" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL85" t="s">
         <v>214</v>
       </c>
-      <c r="CD85">
-        <v>0</v>
-      </c>
-      <c r="CE85">
-        <v>0</v>
-      </c>
-      <c r="CF85" t="s">
+      <c r="CM85" t="s">
         <v>214</v>
       </c>
-      <c r="CG85">
-        <v>0</v>
-      </c>
-      <c r="CH85">
-        <v>0</v>
-      </c>
-      <c r="CI85">
-        <v>0</v>
-      </c>
-      <c r="CJ85">
-        <v>0</v>
-      </c>
-      <c r="CK85">
-        <v>0</v>
-      </c>
-      <c r="CL85">
-        <v>0</v>
-      </c>
-      <c r="CM85">
-        <v>0</v>
-      </c>
-      <c r="CN85">
-        <v>0</v>
-      </c>
-      <c r="CO85">
-        <v>0</v>
+      <c r="CN85" t="s">
+        <v>214</v>
+      </c>
+      <c r="CO85" t="s">
+        <v>234</v>
       </c>
       <c r="CP85">
         <v>0</v>
@@ -37351,6 +37348,9 @@
       <c r="DF85">
         <v>0</v>
       </c>
+      <c r="DG85" t="s">
+        <v>234</v>
+      </c>
       <c r="DH85">
         <v>0</v>
       </c>
@@ -37366,17 +37366,11 @@
       <c r="DP85" t="s">
         <v>258</v>
       </c>
-      <c r="DQ85" t="s">
-        <v>258</v>
-      </c>
       <c r="DR85">
         <v>0</v>
       </c>
-      <c r="DS85" t="s">
-        <v>258</v>
-      </c>
       <c r="DT85" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="DU85">
         <v>0</v>
@@ -37385,10 +37379,10 @@
         <v>258</v>
       </c>
       <c r="DW85" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="DX85" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="DY85" t="s">
         <v>258</v>
@@ -37399,8 +37393,8 @@
       <c r="EA85" t="s">
         <v>169</v>
       </c>
-      <c r="EB85" t="s">
-        <v>258</v>
+      <c r="EB85">
+        <v>0</v>
       </c>
       <c r="EC85">
         <v>0</v>
@@ -37412,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="EF85" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="EG85">
         <v>0</v>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12092" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12105" uniqueCount="768">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1469,7 +1469,7 @@
     <t>OPD</t>
   </si>
   <si>
-    <t>hypertension</t>
+    <t>malaria</t>
   </si>
   <si>
     <t>2025-05-28T10:22:30.010440Z</t>
@@ -2234,7 +2234,7 @@
     <t>2025-06-11T10:21:55.306924Z</t>
   </si>
   <si>
-    <t>2025-06-11T12:54:48.060777Z</t>
+    <t>2025-06-12T12:51:46.809490Z</t>
   </si>
   <si>
     <t>2025-06-02T13:11:37.076308Z</t>
@@ -2265,6 +2265,9 @@
   </si>
   <si>
     <t>OI</t>
+  </si>
+  <si>
+    <t>hypertension</t>
   </si>
   <si>
     <t>165</t>
@@ -6381,13 +6384,13 @@
         <v>0</v>
       </c>
       <c r="EM9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="EN9" t="s">
         <v>151</v>
       </c>
       <c r="EO9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:145">
@@ -16586,7 +16589,7 @@
         <v>151</v>
       </c>
       <c r="EO34" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="1:145">
@@ -16987,7 +16990,7 @@
         <v>151</v>
       </c>
       <c r="EO35" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:145">
@@ -17394,7 +17397,7 @@
         <v>151</v>
       </c>
       <c r="EO36" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:145">
@@ -18223,7 +18226,7 @@
         <v>151</v>
       </c>
       <c r="EO38" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:145">
@@ -25965,7 +25968,7 @@
         <v>151</v>
       </c>
       <c r="EO57" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:145">
@@ -26800,7 +26803,7 @@
         <v>151</v>
       </c>
       <c r="EO59" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" spans="1:145">
@@ -27584,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="ED61" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EE61" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EF61" t="s">
         <v>200</v>
@@ -29230,7 +29233,7 @@
         <v>0</v>
       </c>
       <c r="EF65" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="EG65" t="s">
         <v>258</v>
@@ -29646,7 +29649,7 @@
         <v>0</v>
       </c>
       <c r="EF66" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="EG66">
         <v>0</v>
@@ -29664,7 +29667,7 @@
         <v>180</v>
       </c>
       <c r="EM66" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="EN66" t="s">
         <v>151</v>
@@ -32115,7 +32118,7 @@
         <v>151</v>
       </c>
       <c r="EO72" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="73" spans="1:145">
@@ -32531,7 +32534,7 @@
         <v>151</v>
       </c>
       <c r="EO73" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:145">
@@ -38603,7 +38606,7 @@
         <v>258</v>
       </c>
       <c r="DS88" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="DT88" t="s">
         <v>213</v>
@@ -38666,7 +38669,7 @@
         <v>151</v>
       </c>
       <c r="EO88" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:145">
@@ -40728,7 +40731,7 @@
         <v>151</v>
       </c>
       <c r="EO93" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="94" spans="1:145">
@@ -42769,7 +42772,7 @@
         <v>151</v>
       </c>
       <c r="EO98" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:145">
@@ -44026,7 +44029,7 @@
         <v>151</v>
       </c>
       <c r="EO101" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102" spans="1:145">
@@ -44855,7 +44858,7 @@
         <v>151</v>
       </c>
       <c r="EO103" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="104" spans="1:145">
@@ -47120,7 +47123,7 @@
         <v>0</v>
       </c>
       <c r="BZ109" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="CA109" t="s">
         <v>215</v>
@@ -47285,7 +47288,7 @@
         <v>0</v>
       </c>
       <c r="EF109" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="EG109">
         <v>0</v>
@@ -47710,7 +47713,7 @@
         <v>0</v>
       </c>
       <c r="EF110" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="EG110">
         <v>0</v>
@@ -47731,7 +47734,7 @@
         <v>0</v>
       </c>
       <c r="EM110" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="EN110" t="s">
         <v>151</v>
@@ -48575,7 +48578,7 @@
         <v>151</v>
       </c>
       <c r="EO112" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="113" spans="1:145">
@@ -48988,7 +48991,7 @@
         <v>151</v>
       </c>
       <c r="EO113" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="114" spans="1:145">
@@ -58810,7 +58813,7 @@
         <v>151</v>
       </c>
       <c r="EO137" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="138" spans="1:145">
@@ -59217,7 +59220,7 @@
         <v>151</v>
       </c>
       <c r="EO138" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="139" spans="1:145">
@@ -64140,7 +64143,7 @@
         <v>151</v>
       </c>
       <c r="EO150" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="151" spans="1:145">
@@ -77649,7 +77652,7 @@
         <v>151</v>
       </c>
       <c r="EO183" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="184" spans="1:145">
@@ -79699,7 +79702,7 @@
         <v>151</v>
       </c>
       <c r="EO188" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="189" spans="1:145">
@@ -93965,7 +93968,7 @@
         <v>151</v>
       </c>
       <c r="EO223" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="224" spans="1:145">
@@ -94369,7 +94372,7 @@
         <v>151</v>
       </c>
       <c r="EO224" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="225" spans="1:145">
@@ -96353,13 +96356,13 @@
         <v>0</v>
       </c>
       <c r="ED229" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EE229" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EF229" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="EG229" t="s">
         <v>214</v>
@@ -96778,7 +96781,7 @@
         <v>0</v>
       </c>
       <c r="EF230" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="EG230">
         <v>0</v>
@@ -97155,7 +97158,7 @@
         <v>0</v>
       </c>
       <c r="DS231" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="DT231" t="s">
         <v>244</v>
@@ -97194,7 +97197,7 @@
         <v>0</v>
       </c>
       <c r="EF231" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="EG231">
         <v>0</v>
@@ -100471,7 +100474,7 @@
         <v>151</v>
       </c>
       <c r="EO239" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="240" spans="1:145">
@@ -100875,7 +100878,7 @@
         <v>151</v>
       </c>
       <c r="EO240" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="241" spans="1:145">
@@ -103362,7 +103365,7 @@
         <v>151</v>
       </c>
       <c r="EO246" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="247" spans="1:145">
@@ -104981,7 +104984,7 @@
         <v>234</v>
       </c>
       <c r="EM250" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="EN250" t="s">
         <v>151</v>
@@ -107042,7 +107045,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -107053,8 +107056,8 @@
       <c r="L256">
         <v>0</v>
       </c>
-      <c r="M256">
-        <v>0</v>
+      <c r="M256" t="s">
+        <v>257</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -107063,7 +107066,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -107078,10 +107081,10 @@
         <v>444</v>
       </c>
       <c r="U256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="V256" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W256" t="s">
         <v>234</v>
@@ -107090,25 +107093,22 @@
         <v>234</v>
       </c>
       <c r="Y256" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>258</v>
       </c>
       <c r="AB256" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC256" t="s">
         <v>234</v>
       </c>
-      <c r="AC256">
-        <v>0</v>
-      </c>
-      <c r="AD256">
-        <v>0</v>
-      </c>
-      <c r="AE256">
-        <v>0</v>
+      <c r="AE256" t="s">
+        <v>473</v>
       </c>
       <c r="AF256">
         <v>0</v>
@@ -107120,19 +107120,19 @@
         <v>234</v>
       </c>
       <c r="AI256" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ256">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>461</v>
       </c>
       <c r="AK256">
         <v>0</v>
       </c>
       <c r="AL256" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM256" t="s">
         <v>234</v>
-      </c>
-      <c r="AM256">
-        <v>0</v>
       </c>
       <c r="AN256">
         <v>0</v>
@@ -107213,19 +107213,19 @@
         <v>234</v>
       </c>
       <c r="BN256" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="BO256" t="s">
-        <v>258</v>
+        <v>461</v>
       </c>
       <c r="BP256" t="s">
         <v>258</v>
       </c>
       <c r="BQ256" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR256" t="s">
         <v>234</v>
-      </c>
-      <c r="BR256" t="s">
-        <v>258</v>
       </c>
       <c r="BT256">
         <v>0</v>
@@ -107242,57 +107242,57 @@
       <c r="BX256" t="s">
         <v>234</v>
       </c>
-      <c r="BY256">
-        <v>0</v>
+      <c r="BY256" t="s">
+        <v>748</v>
       </c>
       <c r="BZ256" t="s">
         <v>483</v>
       </c>
       <c r="CA256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CB256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE256">
+        <v>0</v>
+      </c>
+      <c r="CF256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH256">
+        <v>0</v>
+      </c>
+      <c r="CI256" t="s">
         <v>234</v>
       </c>
-      <c r="CB256" t="s">
+      <c r="CJ256" t="s">
         <v>234</v>
       </c>
-      <c r="CC256" t="s">
-        <v>215</v>
-      </c>
-      <c r="CD256">
-        <v>0</v>
-      </c>
-      <c r="CE256">
-        <v>0</v>
-      </c>
-      <c r="CF256" t="s">
+      <c r="CK256" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL256" t="s">
+        <v>461</v>
+      </c>
+      <c r="CM256">
+        <v>0</v>
+      </c>
+      <c r="CN256" t="s">
+        <v>180</v>
+      </c>
+      <c r="CO256" t="s">
         <v>234</v>
       </c>
-      <c r="CG256">
-        <v>0</v>
-      </c>
-      <c r="CH256">
-        <v>0</v>
-      </c>
-      <c r="CI256">
-        <v>0</v>
-      </c>
-      <c r="CJ256">
-        <v>0</v>
-      </c>
-      <c r="CK256">
-        <v>0</v>
-      </c>
-      <c r="CL256">
-        <v>0</v>
-      </c>
-      <c r="CM256">
-        <v>0</v>
-      </c>
-      <c r="CN256">
-        <v>0</v>
-      </c>
-      <c r="CO256">
-        <v>0</v>
-      </c>
       <c r="CP256">
         <v>0</v>
       </c>
@@ -107347,17 +107347,11 @@
       <c r="DP256" t="s">
         <v>258</v>
       </c>
-      <c r="DQ256" t="s">
-        <v>258</v>
-      </c>
       <c r="DR256">
         <v>0</v>
       </c>
-      <c r="DS256" t="s">
-        <v>258</v>
-      </c>
       <c r="DT256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="DU256">
         <v>0</v>
@@ -107366,10 +107360,10 @@
         <v>258</v>
       </c>
       <c r="DW256" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="DX256" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="DY256" t="s">
         <v>258</v>
@@ -107380,8 +107374,8 @@
       <c r="EA256" t="s">
         <v>168</v>
       </c>
-      <c r="EB256" t="s">
-        <v>258</v>
+      <c r="EB256">
+        <v>0</v>
       </c>
       <c r="EC256">
         <v>0</v>
@@ -107393,7 +107387,7 @@
         <v>0</v>
       </c>
       <c r="EF256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="EG256">
         <v>0</v>
@@ -108249,7 +108243,7 @@
         <v>151</v>
       </c>
       <c r="EO258" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="259" spans="1:145">
@@ -109452,7 +109446,7 @@
         <v>0</v>
       </c>
       <c r="EF261" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="EG261">
         <v>0</v>
